--- a/results/acl/mbert/results_pos.xlsx
+++ b/results/acl/mbert/results_pos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Language</t>
   </si>
@@ -52,28 +52,28 @@
     <t>Korean</t>
   </si>
   <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Algerian</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Cantonese</t>
+  </si>
+  <si>
     <t>Japanese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Algerian</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Cantonese</t>
   </si>
 </sst>
 </file>
@@ -431,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,11 +489,8 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -504,52 +501,49 @@
         <v>0.8397284942512814</v>
       </c>
       <c r="D2">
-        <v>0.7506579858706192</v>
+        <v>0.7610010620122823</v>
       </c>
       <c r="E2">
         <v>0.8408366809807453</v>
       </c>
       <c r="F2">
-        <v>0.8290621969801911</v>
+        <v>0.8144710717089163</v>
       </c>
       <c r="G2">
-        <v>0.5647134875559865</v>
+        <v>0.6014683474165397</v>
       </c>
       <c r="H2">
-        <v>0.5377014360253036</v>
+        <v>0.5479983377199058</v>
       </c>
       <c r="I2">
         <v>0.7337119637992335</v>
       </c>
       <c r="J2">
-        <v>0.6840282587616013</v>
+        <v>0.6829200720321374</v>
       </c>
       <c r="K2">
-        <v>0.6122269935817518</v>
+        <v>0.6089947822874822</v>
       </c>
       <c r="L2">
-        <v>0.5693309322620862</v>
+        <v>0.5997137184282219</v>
       </c>
       <c r="M2">
-        <v>0.5997137184282219</v>
+        <v>0.6265872466177218</v>
       </c>
       <c r="N2">
-        <v>0.6311585168767604</v>
+        <v>0.6205845684997923</v>
       </c>
       <c r="O2">
-        <v>0.6053931754167244</v>
+        <v>0.7214757353280694</v>
       </c>
       <c r="P2">
-        <v>0.7639562266241862</v>
+        <v>0.6420095119360946</v>
       </c>
       <c r="Q2">
-        <v>0.6420095119360946</v>
-      </c>
-      <c r="R2">
         <v>0.4972987948469317</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -560,52 +554,49 @@
         <v>0.8981138430447962</v>
       </c>
       <c r="D3">
-        <v>0.7123610643314248</v>
+        <v>0.7250757830919502</v>
       </c>
       <c r="E3">
         <v>0.8488127315594476</v>
       </c>
       <c r="F3">
-        <v>0.7761030650050522</v>
+        <v>0.767009093971034</v>
       </c>
       <c r="G3">
-        <v>0.5028629168070057</v>
+        <v>0.5632788817783766</v>
       </c>
       <c r="H3">
-        <v>0.5761199056921522</v>
+        <v>0.5955708992926911</v>
       </c>
       <c r="I3">
         <v>0.7381694173122263</v>
       </c>
       <c r="J3">
-        <v>0.599528460761199</v>
+        <v>0.60500168406871</v>
       </c>
       <c r="K3">
-        <v>0.5562057931963624</v>
+        <v>0.5506483664533512</v>
       </c>
       <c r="L3">
-        <v>0.4924216908049848</v>
+        <v>0.5133462445267767</v>
       </c>
       <c r="M3">
-        <v>0.5977180868979455</v>
+        <v>0.5505641630178512</v>
       </c>
       <c r="N3">
-        <v>0.5599107443583698</v>
+        <v>0.6405776355675311</v>
       </c>
       <c r="O3">
-        <v>0.6377568204782755</v>
+        <v>0.7221286628494442</v>
       </c>
       <c r="P3">
-        <v>0.7932384641293365</v>
+        <v>0.6647019198383294</v>
       </c>
       <c r="Q3">
-        <v>0.6647019198383294</v>
-      </c>
-      <c r="R3">
         <v>0.5051364095655103</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,52 +607,49 @@
         <v>0.8850936444580902</v>
       </c>
       <c r="D4">
-        <v>0.9661498311329444</v>
+        <v>0.9656892846177464</v>
       </c>
       <c r="E4">
         <v>0.8583819465766043</v>
       </c>
       <c r="F4">
-        <v>0.8267577525330059</v>
+        <v>0.8271415412956709</v>
       </c>
       <c r="G4">
-        <v>0.5964844949339884</v>
+        <v>0.6410807491556647</v>
       </c>
       <c r="H4">
-        <v>0.5942585201105312</v>
+        <v>0.6007829290758366</v>
       </c>
       <c r="I4">
         <v>0.7704175621737795</v>
       </c>
       <c r="J4">
-        <v>0.7942124654590114</v>
+        <v>0.77655818237642</v>
       </c>
       <c r="K4">
-        <v>0.723595333128646</v>
+        <v>0.723672090881179</v>
       </c>
       <c r="L4">
-        <v>0.605081363217685</v>
+        <v>0.606002456248081</v>
       </c>
       <c r="M4">
-        <v>0.6379336813018115</v>
+        <v>0.6947344181762358</v>
       </c>
       <c r="N4">
-        <v>0.7093183911575069</v>
+        <v>0.7480810561866749</v>
       </c>
       <c r="O4">
-        <v>0.7448572305802886</v>
+        <v>0.7457783236106846</v>
       </c>
       <c r="P4">
-        <v>0.7789376727049432</v>
+        <v>0.6424623887012588</v>
       </c>
       <c r="Q4">
-        <v>0.6424623887012588</v>
-      </c>
-      <c r="R4">
         <v>0.6727817009517961</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -672,52 +660,49 @@
         <v>0.8544683975171862</v>
       </c>
       <c r="D5">
-        <v>0.7547887605953414</v>
+        <v>0.7756457318294067</v>
       </c>
       <c r="E5">
         <v>0.9789094306881132</v>
       </c>
       <c r="F5">
-        <v>0.7966028165253954</v>
+        <v>0.7917639991990923</v>
       </c>
       <c r="G5">
-        <v>0.5782553560702129</v>
+        <v>0.6221384235466862</v>
       </c>
       <c r="H5">
-        <v>0.5624708002402723</v>
+        <v>0.5662751117933658</v>
       </c>
       <c r="I5">
         <v>0.8279049589534806</v>
       </c>
       <c r="J5">
-        <v>0.7437095374758059</v>
+        <v>0.7456116932523527</v>
       </c>
       <c r="K5">
-        <v>0.6117266235066409</v>
+        <v>0.6140959754388307</v>
       </c>
       <c r="L5">
-        <v>0.5707468464259494</v>
+        <v>0.5691116598811987</v>
       </c>
       <c r="M5">
-        <v>0.5919375291997597</v>
+        <v>0.5960421811386237</v>
       </c>
       <c r="N5">
-        <v>0.6150637389040913</v>
+        <v>0.6836748314756724</v>
       </c>
       <c r="O5">
-        <v>0.661616498698525</v>
+        <v>0.7661349529466729</v>
       </c>
       <c r="P5">
-        <v>0.7812520856971235</v>
+        <v>0.6691250083427885</v>
       </c>
       <c r="Q5">
-        <v>0.6691250083427885</v>
-      </c>
-      <c r="R5">
         <v>0.5760194887539211</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -728,52 +713,49 @@
         <v>0.7745242933678183</v>
       </c>
       <c r="D6">
-        <v>0.7163310548679106</v>
+        <v>0.73766857565121</v>
       </c>
       <c r="E6">
         <v>0.7579900240162571</v>
       </c>
       <c r="F6">
-        <v>0.9739515980048032</v>
+        <v>0.9757990024016258</v>
       </c>
       <c r="G6">
-        <v>0.4773692961389248</v>
+        <v>0.5254018104563088</v>
       </c>
       <c r="H6">
-        <v>0.4869757990024016</v>
+        <v>0.5047108812118973</v>
       </c>
       <c r="I6">
         <v>0.67762793275448</v>
       </c>
       <c r="J6">
-        <v>0.6634952891187881</v>
+        <v>0.6591538887862554</v>
       </c>
       <c r="K6">
-        <v>0.566691298725291</v>
+        <v>0.5773138740070202</v>
       </c>
       <c r="L6">
-        <v>0.5244781082578976</v>
+        <v>0.5190282652872714</v>
       </c>
       <c r="M6">
-        <v>0.5484019951967486</v>
+        <v>0.6302420099759838</v>
       </c>
       <c r="N6">
-        <v>0.6424348789950121</v>
+        <v>0.6095510807315722</v>
       </c>
       <c r="O6">
-        <v>0.5958802881950859</v>
+        <v>0.6831701459449473</v>
       </c>
       <c r="P6">
-        <v>0.7334195455385184</v>
+        <v>0.6662663957140218</v>
       </c>
       <c r="Q6">
-        <v>0.6662663957140218</v>
-      </c>
-      <c r="R6">
         <v>0.6104747829299834</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -784,52 +766,49 @@
         <v>0.562456222274107</v>
       </c>
       <c r="D7">
-        <v>0.4911043660985291</v>
+        <v>0.3678262899836563</v>
       </c>
       <c r="E7">
         <v>0.6010273173009573</v>
       </c>
       <c r="F7">
-        <v>0.5194956805977119</v>
+        <v>0.5201494279710484</v>
       </c>
       <c r="G7">
-        <v>0.9197291618024749</v>
+        <v>0.9188419332243755</v>
       </c>
       <c r="H7">
-        <v>0.5116974083586271</v>
+        <v>0.5106700910576698</v>
       </c>
       <c r="I7">
         <v>0.5731496614522531</v>
       </c>
       <c r="J7">
-        <v>0.5325239318234882</v>
+        <v>0.5490077048797571</v>
       </c>
       <c r="K7">
-        <v>0.5218304926453421</v>
+        <v>0.5209432640672426</v>
       </c>
       <c r="L7">
-        <v>0.4831660051365865</v>
+        <v>0.4995563857109503</v>
       </c>
       <c r="M7">
-        <v>0.560915246322671</v>
+        <v>0.4982488909642774</v>
       </c>
       <c r="N7">
-        <v>0.5231846836329676</v>
+        <v>0.4335279010039692</v>
       </c>
       <c r="O7">
-        <v>0.3732430539341583</v>
+        <v>0.5040859210833528</v>
       </c>
       <c r="P7">
-        <v>0.5303759047396684</v>
+        <v>0.4711650712117674</v>
       </c>
       <c r="Q7">
-        <v>0.4711650712117674</v>
-      </c>
-      <c r="R7">
         <v>0.4247490077048798</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -840,54 +819,51 @@
         <v>0.5872020075282308</v>
       </c>
       <c r="D8">
-        <v>0.5780844834797156</v>
+        <v>0.5648682559598495</v>
       </c>
       <c r="E8">
         <v>0.5613550815558344</v>
       </c>
       <c r="F8">
-        <v>0.5392722710163111</v>
+        <v>0.5371810957758261</v>
       </c>
       <c r="G8">
-        <v>0.5463822668339607</v>
+        <v>0.5622751986616479</v>
       </c>
       <c r="H8">
-        <v>0.887745713090757</v>
+        <v>0.8945211208699289</v>
       </c>
       <c r="I8">
         <v>0.6282726892513593</v>
       </c>
       <c r="J8">
-        <v>0.5446256796319532</v>
+        <v>0.550564617314931</v>
       </c>
       <c r="K8">
-        <v>0.5720618987871183</v>
+        <v>0.5733166039314095</v>
       </c>
       <c r="L8">
-        <v>0.5125052279381012</v>
+        <v>0.5038895859473024</v>
       </c>
       <c r="M8">
-        <v>0.5391049769970724</v>
+        <v>0.5553324968632372</v>
       </c>
       <c r="N8">
-        <v>0.5427017984107069</v>
+        <v>0.5375993308239231</v>
       </c>
       <c r="O8">
-        <v>0.5484734420744458</v>
+        <v>0.5989125888749477</v>
       </c>
       <c r="P8">
-        <v>0.5845253032204099</v>
+        <v>0.551401087411125</v>
       </c>
       <c r="Q8">
-        <v>0.551401087411125</v>
-      </c>
-      <c r="R8">
         <v>0.4996235884567127</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.3135471731923663</v>
@@ -896,54 +872,51 @@
         <v>0.4116566615894633</v>
       </c>
       <c r="D9">
-        <v>0.4460173819550219</v>
+        <v>0.444270226682197</v>
       </c>
       <c r="E9">
         <v>0.3193262252486336</v>
       </c>
       <c r="F9">
-        <v>0.482797240390646</v>
+        <v>0.4361616342621629</v>
       </c>
       <c r="G9">
-        <v>0.4918018098736672</v>
+        <v>0.463981722067915</v>
       </c>
       <c r="H9">
-        <v>0.5105277304900995</v>
+        <v>0.5140220410357494</v>
       </c>
       <c r="I9">
         <v>0.557476928590628</v>
       </c>
       <c r="J9">
-        <v>0.4134486157154377</v>
+        <v>0.4663112624316818</v>
       </c>
       <c r="K9">
-        <v>0.4654600842218439</v>
+        <v>0.4727622972851895</v>
       </c>
       <c r="L9">
-        <v>0.3922139593226414</v>
+        <v>0.3951258847773497</v>
       </c>
       <c r="M9">
-        <v>0.4544843652002509</v>
+        <v>0.4454349968640803</v>
       </c>
       <c r="N9">
-        <v>0.4082967476032613</v>
+        <v>0.4371920078845982</v>
       </c>
       <c r="O9">
-        <v>0.4463309739270674</v>
+        <v>0.5891497177672251</v>
       </c>
       <c r="P9">
-        <v>0.5759340560881642</v>
+        <v>0.508601379804677</v>
       </c>
       <c r="Q9">
-        <v>0.508601379804677</v>
-      </c>
-      <c r="R9">
         <v>0.4043544485261177</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.2801408248311539</v>
@@ -952,52 +925,49 @@
         <v>0.4640034487713752</v>
       </c>
       <c r="D10">
-        <v>0.4175887340135077</v>
+        <v>0.3678689466877425</v>
       </c>
       <c r="E10">
         <v>0.3974709009915218</v>
       </c>
       <c r="F10">
-        <v>0.4450352062077885</v>
+        <v>0.4539445322603822</v>
       </c>
       <c r="G10">
-        <v>0.7052737462279063</v>
+        <v>0.7048426498060066</v>
       </c>
       <c r="H10">
-        <v>0.4948986923408536</v>
+        <v>0.4969104756430522</v>
       </c>
       <c r="I10">
         <v>0.5056761028883461</v>
       </c>
       <c r="J10">
-        <v>0.3990515878718207</v>
+        <v>0.4655841356516741</v>
       </c>
       <c r="K10">
-        <v>0.4647937922115247</v>
+        <v>0.4347607414858456</v>
       </c>
       <c r="L10">
-        <v>0.4751401063371174</v>
+        <v>0.4813191550510131</v>
       </c>
       <c r="M10">
-        <v>0.5107774105474925</v>
+        <v>0.450064664463285</v>
       </c>
       <c r="N10">
-        <v>0.4851990228481103</v>
+        <v>0.3494036499497054</v>
       </c>
       <c r="O10">
-        <v>0.3375484983474637</v>
+        <v>0.4863486133065096</v>
       </c>
       <c r="P10">
-        <v>0.462782008909326</v>
+        <v>0.4605546773961776</v>
       </c>
       <c r="Q10">
-        <v>0.4605546773961776</v>
-      </c>
-      <c r="R10">
         <v>0.4019974134214686</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1008,52 +978,49 @@
         <v>0.8025188916876574</v>
       </c>
       <c r="D11">
-        <v>0.7389924433249371</v>
+        <v>0.7477581863979849</v>
       </c>
       <c r="E11">
         <v>0.8038790931989924</v>
       </c>
       <c r="F11">
-        <v>0.7269017632241813</v>
+        <v>0.7140050377833753</v>
       </c>
       <c r="G11">
-        <v>0.5940554156171285</v>
+        <v>0.6330982367758187</v>
       </c>
       <c r="H11">
-        <v>0.5951637279596977</v>
+        <v>0.5950629722921914</v>
       </c>
       <c r="I11">
         <v>0.9049874055415618</v>
       </c>
       <c r="J11">
-        <v>0.7408564231738035</v>
+        <v>0.7392443324937028</v>
       </c>
       <c r="K11">
-        <v>0.6414609571788413</v>
+        <v>0.6463476070528967</v>
       </c>
       <c r="L11">
-        <v>0.5769773299748111</v>
+        <v>0.5987405541561713</v>
       </c>
       <c r="M11">
-        <v>0.6150125944584383</v>
+        <v>0.6411586901763224</v>
       </c>
       <c r="N11">
-        <v>0.6506801007556675</v>
+        <v>0.6859949622166247</v>
       </c>
       <c r="O11">
-        <v>0.6780352644836272</v>
+        <v>0.7662468513853904</v>
       </c>
       <c r="P11">
-        <v>0.7653400503778337</v>
+        <v>0.6704785894206549</v>
       </c>
       <c r="Q11">
-        <v>0.6704785894206549</v>
-      </c>
-      <c r="R11">
         <v>0.5644836272040302</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1064,52 +1031,49 @@
         <v>0.8485748593819125</v>
       </c>
       <c r="D12">
-        <v>0.7605384566769892</v>
+        <v>0.7685647475194337</v>
       </c>
       <c r="E12">
         <v>0.8394741831511091</v>
       </c>
       <c r="F12">
-        <v>0.7899892561461164</v>
+        <v>0.7858813120141566</v>
       </c>
       <c r="G12">
-        <v>0.5462933704101625</v>
+        <v>0.6468432029324401</v>
       </c>
       <c r="H12">
-        <v>0.5667698919294698</v>
+        <v>0.571193831763888</v>
       </c>
       <c r="I12">
         <v>0.7932756114516842</v>
       </c>
       <c r="J12">
-        <v>0.972129179043165</v>
+        <v>0.9734563609934905</v>
       </c>
       <c r="K12">
-        <v>0.7675535612715667</v>
+        <v>0.7702079251722177</v>
       </c>
       <c r="L12">
-        <v>0.6703532831953486</v>
+        <v>0.6453896227011313</v>
       </c>
       <c r="M12">
-        <v>0.7021424508626682</v>
+        <v>0.7652151930733742</v>
       </c>
       <c r="N12">
-        <v>0.7697655311887759</v>
+        <v>0.6453896227011313</v>
       </c>
       <c r="O12">
-        <v>0.6249763003223157</v>
+        <v>0.7918852303608671</v>
       </c>
       <c r="P12">
-        <v>0.7939708019970928</v>
+        <v>0.6664349364848638</v>
       </c>
       <c r="Q12">
-        <v>0.6664349364848638</v>
-      </c>
-      <c r="R12">
         <v>0.6364153447513113</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1120,52 +1084,49 @@
         <v>0.6682940838598507</v>
       </c>
       <c r="D13">
-        <v>0.6210306063838517</v>
+        <v>0.6449905637154345</v>
       </c>
       <c r="E13">
         <v>0.6432263887749241</v>
       </c>
       <c r="F13">
-        <v>0.6445802904734553</v>
+        <v>0.6327644211044555</v>
       </c>
       <c r="G13">
-        <v>0.4963485681463855</v>
+        <v>0.5720439812915402</v>
       </c>
       <c r="H13">
-        <v>0.5540329859686551</v>
+        <v>0.5607614671371133</v>
       </c>
       <c r="I13">
         <v>0.6942643800771313</v>
       </c>
       <c r="J13">
-        <v>0.7113317469434643</v>
+        <v>0.7055468942315583</v>
       </c>
       <c r="K13">
-        <v>0.9489209813735948</v>
+        <v>0.9481414622138344</v>
       </c>
       <c r="L13">
-        <v>0.6273488143103306</v>
+        <v>0.6275539509313203</v>
       </c>
       <c r="M13">
-        <v>0.6963157462870272</v>
+        <v>0.6776483137769754</v>
       </c>
       <c r="N13">
-        <v>0.6694838762615902</v>
+        <v>0.5816443751538525</v>
       </c>
       <c r="O13">
-        <v>0.5700336424058423</v>
+        <v>0.7034545006974645</v>
       </c>
       <c r="P13">
-        <v>0.6901616476573398</v>
+        <v>0.628169360794289</v>
       </c>
       <c r="Q13">
-        <v>0.628169360794289</v>
-      </c>
-      <c r="R13">
         <v>0.5897677853450398</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1176,54 +1137,51 @@
         <v>0.6231307284129282</v>
       </c>
       <c r="D14">
-        <v>0.524662325132658</v>
+        <v>0.5524602026049205</v>
       </c>
       <c r="E14">
         <v>0.6380849011095031</v>
       </c>
       <c r="F14">
-        <v>0.5676555716353111</v>
+        <v>0.5460082006753497</v>
       </c>
       <c r="G14">
-        <v>0.5366618427399904</v>
+        <v>0.5235166425470333</v>
       </c>
       <c r="H14">
-        <v>0.5300289435600579</v>
+        <v>0.5393150024119633</v>
       </c>
       <c r="I14">
         <v>0.6088398456343463</v>
       </c>
       <c r="J14">
-        <v>0.6559937288953208</v>
+        <v>0.6566570188133141</v>
       </c>
       <c r="K14">
-        <v>0.6468282682103232</v>
+        <v>0.6463458755426917</v>
       </c>
       <c r="L14">
-        <v>0.6431500241196334</v>
+        <v>0.6449589966232513</v>
       </c>
       <c r="M14">
-        <v>0.5441992281717318</v>
+        <v>0.649662325132658</v>
       </c>
       <c r="N14">
-        <v>0.6511698022190062</v>
+        <v>0.5065123010130246</v>
       </c>
       <c r="O14">
-        <v>0.506090207428847</v>
+        <v>0.6315123010130246</v>
       </c>
       <c r="P14">
-        <v>0.6198142788229619</v>
+        <v>0.5438977327544622</v>
       </c>
       <c r="Q14">
-        <v>0.5438977327544622</v>
-      </c>
-      <c r="R14">
         <v>0.5078388808490111</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0.433257198487288</v>
@@ -1232,54 +1190,51 @@
         <v>0.5032762946044108</v>
       </c>
       <c r="D15">
-        <v>0.362077357996031</v>
+        <v>0.3463885872617666</v>
       </c>
       <c r="E15">
         <v>0.4327704347174898</v>
       </c>
       <c r="F15">
-        <v>0.412176582918336</v>
+        <v>0.3803497210469166</v>
       </c>
       <c r="G15">
-        <v>0.4942149998127832</v>
+        <v>0.5187029617703224</v>
       </c>
       <c r="H15">
-        <v>0.4499943834949638</v>
+        <v>0.4326581046167671</v>
       </c>
       <c r="I15">
         <v>0.4411577489047815</v>
       </c>
       <c r="J15">
-        <v>0.4823454525030891</v>
+        <v>0.4828696596397948</v>
       </c>
       <c r="K15">
-        <v>0.4885610514097428</v>
+        <v>0.5024899838993522</v>
       </c>
       <c r="L15">
-        <v>0.4405586550342607</v>
+        <v>0.4829445463736099</v>
       </c>
       <c r="M15">
-        <v>0.9285580559403902</v>
+        <v>0.5418804058860973</v>
       </c>
       <c r="N15">
-        <v>0.5449507619725166</v>
+        <v>0.3736099150035571</v>
       </c>
       <c r="O15">
-        <v>0.3576964840678474</v>
+        <v>0.4884112779421125</v>
       </c>
       <c r="P15">
-        <v>0.537724192159359</v>
+        <v>0.4594675553225746</v>
       </c>
       <c r="Q15">
-        <v>0.4594675553225746</v>
-      </c>
-      <c r="R15">
         <v>0.3671322125285505</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0.589197656204676</v>
@@ -1288,54 +1243,51 @@
         <v>0.7072576434414342</v>
       </c>
       <c r="D16">
-        <v>0.6416429773162383</v>
+        <v>0.6485467308696409</v>
       </c>
       <c r="E16">
         <v>0.7196727968904102</v>
       </c>
       <c r="F16">
-        <v>0.6385681963218658</v>
+        <v>0.6243545860648605</v>
       </c>
       <c r="G16">
-        <v>0.5104716598015896</v>
+        <v>0.547078958055346</v>
       </c>
       <c r="H16">
-        <v>0.508383129314846</v>
+        <v>0.5173754133549922</v>
       </c>
       <c r="I16">
         <v>0.666183210535476</v>
       </c>
       <c r="J16">
-        <v>0.7014561698671462</v>
+        <v>0.700643963566746</v>
       </c>
       <c r="K16">
-        <v>0.6636885768985322</v>
+        <v>0.6725068167314497</v>
       </c>
       <c r="L16">
-        <v>0.571967279689041</v>
+        <v>0.5679642629227823</v>
       </c>
       <c r="M16">
-        <v>0.6105470789580554</v>
+        <v>0.7464175900678772</v>
       </c>
       <c r="N16">
-        <v>0.7487961942333353</v>
+        <v>0.5831061089516737</v>
       </c>
       <c r="O16">
-        <v>0.5887915530544758</v>
+        <v>0.6449498172535824</v>
       </c>
       <c r="P16">
-        <v>0.650867320299356</v>
+        <v>0.5970296455299646</v>
       </c>
       <c r="Q16">
-        <v>0.5970296455299646</v>
-      </c>
-      <c r="R16">
         <v>0.5382607182224285</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0.5561177774565081</v>
@@ -1344,54 +1296,51 @@
         <v>0.7682039419786998</v>
       </c>
       <c r="D17">
-        <v>0.777697460363356</v>
+        <v>0.7688304178111898</v>
       </c>
       <c r="E17">
         <v>0.7799624114500506</v>
       </c>
       <c r="F17">
-        <v>0.7427111946412221</v>
+        <v>0.7143752108332129</v>
       </c>
       <c r="G17">
-        <v>0.5289383644161727</v>
+        <v>0.5774661462098212</v>
       </c>
       <c r="H17">
-        <v>0.592356994843622</v>
+        <v>0.5954411835574189</v>
       </c>
       <c r="I17">
         <v>0.784588694520746</v>
       </c>
       <c r="J17">
-        <v>0.6690761890993205</v>
+        <v>0.6640161919907475</v>
       </c>
       <c r="K17">
-        <v>0.6158739337863236</v>
+        <v>0.6110548889210159</v>
       </c>
       <c r="L17">
-        <v>0.535347694087032</v>
+        <v>0.5354922654329912</v>
       </c>
       <c r="M17">
-        <v>0.5893209965784781</v>
+        <v>0.5922124234976628</v>
       </c>
       <c r="N17">
-        <v>0.626186689798082</v>
+        <v>0.7628066117295552</v>
       </c>
       <c r="O17">
-        <v>0.767047371211026</v>
+        <v>0.7718182256276805</v>
       </c>
       <c r="P17">
-        <v>0.7607826128861259</v>
+        <v>0.7287841549804829</v>
       </c>
       <c r="Q17">
-        <v>0.7287841549804829</v>
-      </c>
-      <c r="R17">
         <v>0.6237289769167751</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0.5139063222567219</v>
@@ -1400,54 +1349,51 @@
         <v>0.6430600515293652</v>
       </c>
       <c r="D18">
-        <v>0.5419171566360573</v>
+        <v>0.5401995111316641</v>
       </c>
       <c r="E18">
         <v>0.5496465614058268</v>
       </c>
       <c r="F18">
-        <v>0.6221179890334941</v>
+        <v>0.5993922177445993</v>
       </c>
       <c r="G18">
-        <v>0.4183127436083768</v>
+        <v>0.4410385148972716</v>
       </c>
       <c r="H18">
-        <v>0.4644249190724714</v>
+        <v>0.469709982162912</v>
       </c>
       <c r="I18">
         <v>0.616898989231684</v>
       </c>
       <c r="J18">
-        <v>0.4935588293585255</v>
+        <v>0.4909823611019357</v>
       </c>
       <c r="K18">
-        <v>0.4469842108740173</v>
+        <v>0.4625751469908172</v>
       </c>
       <c r="L18">
-        <v>0.4036466935324041</v>
+        <v>0.4131598070951972</v>
       </c>
       <c r="M18">
-        <v>0.4575543370548986</v>
+        <v>0.4656140582678206</v>
       </c>
       <c r="N18">
-        <v>0.4949461584197661</v>
+        <v>0.6397568870978397</v>
       </c>
       <c r="O18">
-        <v>0.6269406091035211</v>
+        <v>0.9672986721278986</v>
       </c>
       <c r="P18">
-        <v>0.9698090770958578</v>
+        <v>0.5848582942458875</v>
       </c>
       <c r="Q18">
-        <v>0.5848582942458875</v>
-      </c>
-      <c r="R18">
         <v>0.5290348153531083</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0.06714736367733214</v>
@@ -1456,54 +1402,51 @@
         <v>0.3433979269941415</v>
       </c>
       <c r="D19">
-        <v>0.3366381252816584</v>
+        <v>0.3249211356466877</v>
       </c>
       <c r="E19">
         <v>0.1825146462370437</v>
       </c>
       <c r="F19">
-        <v>0.3276250563316809</v>
+        <v>0.2947273546642632</v>
       </c>
       <c r="G19">
-        <v>0.2316358720144209</v>
+        <v>0.2609283461018477</v>
       </c>
       <c r="H19">
-        <v>0.3208652546191978</v>
+        <v>0.3258224425416855</v>
       </c>
       <c r="I19">
         <v>0.3668319062640829</v>
       </c>
       <c r="J19">
-        <v>0.277602523659306</v>
+        <v>0.3091482649842272</v>
       </c>
       <c r="K19">
-        <v>0.3262730959891843</v>
+        <v>0.2690401081568274</v>
       </c>
       <c r="L19">
-        <v>0.2897701667417756</v>
+        <v>0.288418206399279</v>
       </c>
       <c r="M19">
-        <v>0.284812978819288</v>
+        <v>0.281207751239297</v>
       </c>
       <c r="N19">
-        <v>0.3163587201442091</v>
+        <v>0.2893195132942767</v>
       </c>
       <c r="O19">
-        <v>0.298783235691753</v>
+        <v>0.3560162235241099</v>
       </c>
       <c r="P19">
-        <v>0.3447498873366381</v>
+        <v>0.821991888237945</v>
       </c>
       <c r="Q19">
-        <v>0.821991888237945</v>
-      </c>
-      <c r="R19">
         <v>0.3600721045515998</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0.12516933080466</v>
@@ -1512,48 +1455,45 @@
         <v>0.3312562087961708</v>
       </c>
       <c r="D20">
-        <v>0.302357084800867</v>
+        <v>0.2509708299467173</v>
       </c>
       <c r="E20">
         <v>0.1302266775038382</v>
       </c>
       <c r="F20">
-        <v>0.2968481892892622</v>
+        <v>0.2629820283572654</v>
       </c>
       <c r="G20">
-        <v>0.1859478009572835</v>
+        <v>0.1911857671814323</v>
       </c>
       <c r="H20">
-        <v>0.3195159396730787</v>
+        <v>0.31987717872302</v>
       </c>
       <c r="I20">
         <v>0.3283662963966405</v>
       </c>
       <c r="J20">
-        <v>0.2656010114693398</v>
+        <v>0.3204190372979319</v>
       </c>
       <c r="K20">
+        <v>0.3256570035220807</v>
+      </c>
+      <c r="L20">
+        <v>0.3105752731870315</v>
+      </c>
+      <c r="M20">
+        <v>0.287636593515759</v>
+      </c>
+      <c r="N20">
+        <v>0.1903729793190644</v>
+      </c>
+      <c r="O20">
         <v>0.332972094283392</v>
       </c>
-      <c r="L20">
-        <v>0.3075047412625305</v>
-      </c>
-      <c r="M20">
-        <v>0.3065113338751919</v>
-      </c>
-      <c r="N20">
-        <v>0.2980222162015714</v>
-      </c>
-      <c r="O20">
-        <v>0.173575363496794</v>
-      </c>
       <c r="P20">
-        <v>0.2973900478641741</v>
+        <v>0.3800234805382462</v>
       </c>
       <c r="Q20">
-        <v>0.3800234805382462</v>
-      </c>
-      <c r="R20">
         <v>0.9293777657364761</v>
       </c>
     </row>

--- a/results/acl/mbert/results_pos.xlsx
+++ b/results/acl/mbert/results_pos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Language</t>
   </si>
@@ -67,13 +67,13 @@
     <t>Maltese</t>
   </si>
   <si>
+    <t>Japanese</t>
+  </si>
+  <si>
     <t>Thai</t>
   </si>
   <si>
     <t>Cantonese</t>
-  </si>
-  <si>
-    <t>Japanese</t>
   </si>
 </sst>
 </file>
@@ -431,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +489,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -542,8 +545,11 @@
       <c r="Q2">
         <v>0.4972987948469317</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.5631435563559126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -595,8 +601,11 @@
       <c r="Q3">
         <v>0.5051364095655103</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.5322078140788145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -648,8 +657,11 @@
       <c r="Q4">
         <v>0.6727817009517961</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.6220448265274793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -701,8 +713,11 @@
       <c r="Q5">
         <v>0.5760194887539211</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.5502903290395782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -754,8 +769,11 @@
       <c r="Q6">
         <v>0.6104747829299834</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.5503417698134122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -807,8 +825,11 @@
       <c r="Q7">
         <v>0.4247490077048798</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.559981321503619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -860,10 +881,13 @@
       <c r="Q8">
         <v>0.4996235884567127</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.5169385194479298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.3135471731923663</v>
@@ -913,10 +937,13 @@
       <c r="Q9">
         <v>0.4043544485261177</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.4317713466535257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.2801408248311539</v>
@@ -966,8 +993,11 @@
       <c r="Q10">
         <v>0.4019974134214686</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.4855582698663601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1019,8 +1049,11 @@
       <c r="Q11">
         <v>0.5644836272040302</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5791435768261964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1105,11 @@
       <c r="Q12">
         <v>0.6364153447513113</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.680022751690577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1161,11 @@
       <c r="Q13">
         <v>0.5897677853450398</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6913104127348815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1178,10 +1217,13 @@
       <c r="Q14">
         <v>0.5078388808490111</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.5821273516642547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0.433257198487288</v>
@@ -1231,8 +1273,11 @@
       <c r="Q15">
         <v>0.3671322125285505</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9275470850338863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1284,8 +1329,11 @@
       <c r="Q16">
         <v>0.5382607182224285</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.630330103846377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1337,8 +1385,11 @@
       <c r="Q17">
         <v>0.6237289769167751</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.579201002361332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +1441,11 @@
       <c r="Q18">
         <v>0.5290348153531083</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.4547136156437868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1497,11 @@
       <c r="Q19">
         <v>0.3600721045515998</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.2947273546642632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1495,6 +1552,9 @@
       </c>
       <c r="Q20">
         <v>0.9293777657364761</v>
+      </c>
+      <c r="R20">
+        <v>0.3010927481260725</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/mbert/results_pos.xlsx
+++ b/results/acl/mbert/results_pos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aturt\Documents\typology_of_crosslingual\results\acl\mbert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,55 +24,55 @@
     <t>Language</t>
   </si>
   <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Algerian</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>Basque</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Algerian</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>Japanese</t>
   </si>
   <si>
     <t>Thai</t>
@@ -79,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +148,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,1131 +445,1133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.9037724523248835</v>
+        <v>0.89818534423050289</v>
       </c>
       <c r="C2">
-        <v>0.8397284942512814</v>
+        <v>0.83972849425128138</v>
       </c>
       <c r="D2">
-        <v>0.7610010620122823</v>
+        <v>0.76100106201228235</v>
       </c>
       <c r="E2">
-        <v>0.8408366809807453</v>
+        <v>0.84083668098074527</v>
       </c>
       <c r="F2">
-        <v>0.8144710717089163</v>
+        <v>0.81447107170891631</v>
       </c>
       <c r="G2">
-        <v>0.6014683474165397</v>
+        <v>0.60146834741653965</v>
       </c>
       <c r="H2">
         <v>0.5479983377199058</v>
       </c>
       <c r="I2">
-        <v>0.7337119637992335</v>
+        <v>0.73371196379923354</v>
       </c>
       <c r="J2">
-        <v>0.6829200720321374</v>
+        <v>0.68292007203213745</v>
       </c>
       <c r="K2">
-        <v>0.6089947822874822</v>
+        <v>0.60899478228748216</v>
       </c>
       <c r="L2">
-        <v>0.5997137184282219</v>
+        <v>0.59971371842822185</v>
       </c>
       <c r="M2">
+        <v>0.56314355635591262</v>
+      </c>
+      <c r="N2">
         <v>0.6265872466177218</v>
       </c>
-      <c r="N2">
-        <v>0.6205845684997923</v>
-      </c>
       <c r="O2">
-        <v>0.7214757353280694</v>
+        <v>0.62058456849979227</v>
       </c>
       <c r="P2">
-        <v>0.6420095119360946</v>
+        <v>0.72147573532806941</v>
       </c>
       <c r="Q2">
-        <v>0.4972987948469317</v>
+        <v>0.64200951193609457</v>
       </c>
       <c r="R2">
-        <v>0.5631435563559126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0.49729879484693168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3868726844055237</v>
+        <v>0.83176153587066348</v>
       </c>
       <c r="C3">
-        <v>0.8981138430447962</v>
+        <v>0.89811384304479625</v>
       </c>
       <c r="D3">
         <v>0.7250757830919502</v>
       </c>
       <c r="E3">
-        <v>0.8488127315594476</v>
+        <v>0.84881273155944759</v>
       </c>
       <c r="F3">
-        <v>0.767009093971034</v>
+        <v>0.76700909397103401</v>
       </c>
       <c r="G3">
-        <v>0.5632788817783766</v>
+        <v>0.56327888177837659</v>
       </c>
       <c r="H3">
-        <v>0.5955708992926911</v>
+        <v>0.59557089929269114</v>
       </c>
       <c r="I3">
-        <v>0.7381694173122263</v>
+        <v>0.73816941731222629</v>
       </c>
       <c r="J3">
-        <v>0.60500168406871</v>
+        <v>0.60500168406871002</v>
       </c>
       <c r="K3">
-        <v>0.5506483664533512</v>
+        <v>0.55064836645335125</v>
       </c>
       <c r="L3">
-        <v>0.5133462445267767</v>
+        <v>0.51334624452677668</v>
       </c>
       <c r="M3">
-        <v>0.5505641630178512</v>
+        <v>0.53220781407881446</v>
       </c>
       <c r="N3">
-        <v>0.6405776355675311</v>
+        <v>0.55056416301785116</v>
       </c>
       <c r="O3">
-        <v>0.7221286628494442</v>
+        <v>0.64057763556753111</v>
       </c>
       <c r="P3">
-        <v>0.6647019198383294</v>
+        <v>0.72212866284944421</v>
       </c>
       <c r="Q3">
-        <v>0.5051364095655103</v>
+        <v>0.66470191983832938</v>
       </c>
       <c r="R3">
-        <v>0.5322078140788145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>0.50513640956551031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.82929075836659505</v>
+      </c>
+      <c r="C4">
+        <v>0.88509364445809025</v>
+      </c>
+      <c r="D4">
+        <v>0.96568928461774639</v>
+      </c>
+      <c r="E4">
+        <v>0.85838194657660427</v>
+      </c>
+      <c r="F4">
+        <v>0.82714154129567086</v>
+      </c>
+      <c r="G4">
+        <v>0.64108074915566471</v>
+      </c>
+      <c r="H4">
+        <v>0.60078292907583664</v>
+      </c>
+      <c r="I4">
+        <v>0.77041756217377955</v>
+      </c>
+      <c r="J4">
+        <v>0.77655818237642005</v>
+      </c>
+      <c r="K4">
+        <v>0.72367209088117901</v>
+      </c>
+      <c r="L4">
+        <v>0.60600245624808102</v>
+      </c>
+      <c r="M4">
+        <v>0.62204482652747928</v>
+      </c>
+      <c r="N4">
+        <v>0.69473441817623582</v>
+      </c>
+      <c r="O4">
+        <v>0.74808105618667486</v>
+      </c>
+      <c r="P4">
+        <v>0.74577832361068463</v>
+      </c>
+      <c r="Q4">
+        <v>0.64246238870125882</v>
+      </c>
+      <c r="R4">
+        <v>0.67278170095179612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.7911421553576912</v>
-      </c>
-      <c r="C4">
-        <v>0.8850936444580902</v>
-      </c>
-      <c r="D4">
-        <v>0.9656892846177464</v>
-      </c>
-      <c r="E4">
-        <v>0.8583819465766043</v>
-      </c>
-      <c r="F4">
-        <v>0.8271415412956709</v>
-      </c>
-      <c r="G4">
-        <v>0.6410807491556647</v>
-      </c>
-      <c r="H4">
-        <v>0.6007829290758366</v>
-      </c>
-      <c r="I4">
-        <v>0.7704175621737795</v>
-      </c>
-      <c r="J4">
-        <v>0.77655818237642</v>
-      </c>
-      <c r="K4">
-        <v>0.723672090881179</v>
-      </c>
-      <c r="L4">
-        <v>0.606002456248081</v>
-      </c>
-      <c r="M4">
-        <v>0.6947344181762358</v>
-      </c>
-      <c r="N4">
-        <v>0.7480810561866749</v>
-      </c>
-      <c r="O4">
-        <v>0.7457783236106846</v>
-      </c>
-      <c r="P4">
-        <v>0.6424623887012588</v>
-      </c>
-      <c r="Q4">
-        <v>0.6727817009517961</v>
-      </c>
-      <c r="R4">
-        <v>0.6220448265274793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5">
-        <v>0.7692718414202763</v>
+        <v>0.87385703797637326</v>
       </c>
       <c r="C5">
-        <v>0.8544683975171862</v>
+        <v>0.85446839751718617</v>
       </c>
       <c r="D5">
-        <v>0.7756457318294067</v>
+        <v>0.77564573182940666</v>
       </c>
       <c r="E5">
         <v>0.9789094306881132</v>
       </c>
       <c r="F5">
-        <v>0.7917639991990923</v>
+        <v>0.79176399919909235</v>
       </c>
       <c r="G5">
-        <v>0.6221384235466862</v>
+        <v>0.62213842354668625</v>
       </c>
       <c r="H5">
-        <v>0.5662751117933658</v>
+        <v>0.56627511179336576</v>
       </c>
       <c r="I5">
         <v>0.8279049589534806</v>
       </c>
       <c r="J5">
-        <v>0.7456116932523527</v>
+        <v>0.74561169325235266</v>
       </c>
       <c r="K5">
-        <v>0.6140959754388307</v>
+        <v>0.61409597543883065</v>
       </c>
       <c r="L5">
-        <v>0.5691116598811987</v>
+        <v>0.56911165988119872</v>
       </c>
       <c r="M5">
-        <v>0.5960421811386237</v>
+        <v>0.5502903290395782</v>
       </c>
       <c r="N5">
-        <v>0.6836748314756724</v>
+        <v>0.59604218113862373</v>
       </c>
       <c r="O5">
-        <v>0.7661349529466729</v>
+        <v>0.68367483147567243</v>
       </c>
       <c r="P5">
-        <v>0.6691250083427885</v>
+        <v>0.76613495294667289</v>
       </c>
       <c r="Q5">
-        <v>0.5760194887539211</v>
+        <v>0.66912500834278854</v>
       </c>
       <c r="R5">
-        <v>0.5502903290395782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.57601948875392106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.80445224459634213</v>
+      </c>
+      <c r="C6">
+        <v>0.77452429336781825</v>
+      </c>
+      <c r="D6">
+        <v>0.73766857565121002</v>
+      </c>
+      <c r="E6">
+        <v>0.75799002401625715</v>
+      </c>
+      <c r="F6">
+        <v>0.97579900240162576</v>
+      </c>
+      <c r="G6">
+        <v>0.52540181045630885</v>
+      </c>
+      <c r="H6">
+        <v>0.50471088121189733</v>
+      </c>
+      <c r="I6">
+        <v>0.67762793275447997</v>
+      </c>
+      <c r="J6">
+        <v>0.65915388878625536</v>
+      </c>
+      <c r="K6">
+        <v>0.57731387400702017</v>
+      </c>
+      <c r="L6">
+        <v>0.51902826528727142</v>
+      </c>
+      <c r="M6">
+        <v>0.55034176981341221</v>
+      </c>
+      <c r="N6">
+        <v>0.63024200997598379</v>
+      </c>
+      <c r="O6">
+        <v>0.60955108073157216</v>
+      </c>
+      <c r="P6">
+        <v>0.68317014594494729</v>
+      </c>
+      <c r="Q6">
+        <v>0.6662663957140218</v>
+      </c>
+      <c r="R6">
+        <v>0.61047478292998336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.7570663218178459</v>
-      </c>
-      <c r="C6">
-        <v>0.7745242933678183</v>
-      </c>
-      <c r="D6">
-        <v>0.73766857565121</v>
-      </c>
-      <c r="E6">
-        <v>0.7579900240162571</v>
-      </c>
-      <c r="F6">
-        <v>0.9757990024016258</v>
-      </c>
-      <c r="G6">
-        <v>0.5254018104563088</v>
-      </c>
-      <c r="H6">
-        <v>0.5047108812118973</v>
-      </c>
-      <c r="I6">
-        <v>0.67762793275448</v>
-      </c>
-      <c r="J6">
-        <v>0.6591538887862554</v>
-      </c>
-      <c r="K6">
-        <v>0.5773138740070202</v>
-      </c>
-      <c r="L6">
-        <v>0.5190282652872714</v>
-      </c>
-      <c r="M6">
-        <v>0.6302420099759838</v>
-      </c>
-      <c r="N6">
-        <v>0.6095510807315722</v>
-      </c>
-      <c r="O6">
-        <v>0.6831701459449473</v>
-      </c>
-      <c r="P6">
-        <v>0.6662663957140218</v>
-      </c>
-      <c r="Q6">
-        <v>0.6104747829299834</v>
-      </c>
-      <c r="R6">
-        <v>0.5503417698134122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>0.5101564324071912</v>
+        <v>0.48494046229278542</v>
       </c>
       <c r="C7">
-        <v>0.562456222274107</v>
+        <v>0.56245622227410697</v>
       </c>
       <c r="D7">
         <v>0.3678262899836563</v>
       </c>
       <c r="E7">
-        <v>0.6010273173009573</v>
+        <v>0.60102731730095726</v>
       </c>
       <c r="F7">
-        <v>0.5201494279710484</v>
+        <v>0.52014942797104835</v>
       </c>
       <c r="G7">
-        <v>0.9188419332243755</v>
+        <v>0.91884193322437546</v>
       </c>
       <c r="H7">
-        <v>0.5106700910576698</v>
+        <v>0.51067009105766981</v>
       </c>
       <c r="I7">
         <v>0.5731496614522531</v>
       </c>
       <c r="J7">
-        <v>0.5490077048797571</v>
+        <v>0.54900770487975714</v>
       </c>
       <c r="K7">
-        <v>0.5209432640672426</v>
+        <v>0.52094326406724256</v>
       </c>
       <c r="L7">
-        <v>0.4995563857109503</v>
+        <v>0.49955638571095029</v>
       </c>
       <c r="M7">
-        <v>0.4982488909642774</v>
+        <v>0.55998132150361901</v>
       </c>
       <c r="N7">
-        <v>0.4335279010039692</v>
+        <v>0.49824889096427738</v>
       </c>
       <c r="O7">
-        <v>0.5040859210833528</v>
+        <v>0.43352790100396921</v>
       </c>
       <c r="P7">
-        <v>0.4711650712117674</v>
+        <v>0.50408592108335282</v>
       </c>
       <c r="Q7">
-        <v>0.4247490077048798</v>
+        <v>0.47116507121176737</v>
       </c>
       <c r="R7">
-        <v>0.559981321503619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>0.42474900770487978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4412379757423672</v>
+        <v>0.54069427017984106</v>
       </c>
       <c r="C8">
-        <v>0.5872020075282308</v>
+        <v>0.58720200752823082</v>
       </c>
       <c r="D8">
-        <v>0.5648682559598495</v>
+        <v>0.56486825595984946</v>
       </c>
       <c r="E8">
-        <v>0.5613550815558344</v>
+        <v>0.56135508155583436</v>
       </c>
       <c r="F8">
-        <v>0.5371810957758261</v>
+        <v>0.53718109577582607</v>
       </c>
       <c r="G8">
-        <v>0.5622751986616479</v>
+        <v>0.56227519866164788</v>
       </c>
       <c r="H8">
-        <v>0.8945211208699289</v>
+        <v>0.89452112086992885</v>
       </c>
       <c r="I8">
-        <v>0.6282726892513593</v>
+        <v>0.62827268925135926</v>
       </c>
       <c r="J8">
         <v>0.550564617314931</v>
       </c>
       <c r="K8">
-        <v>0.5733166039314095</v>
+        <v>0.57331660393140949</v>
       </c>
       <c r="L8">
-        <v>0.5038895859473024</v>
+        <v>0.50388958594730238</v>
       </c>
       <c r="M8">
-        <v>0.5553324968632372</v>
+        <v>0.51693851944792979</v>
       </c>
       <c r="N8">
-        <v>0.5375993308239231</v>
+        <v>0.55533249686323716</v>
       </c>
       <c r="O8">
-        <v>0.5989125888749477</v>
+        <v>0.53759933082392308</v>
       </c>
       <c r="P8">
-        <v>0.551401087411125</v>
+        <v>0.59891258887494769</v>
       </c>
       <c r="Q8">
-        <v>0.4996235884567127</v>
+        <v>0.55140108741112503</v>
       </c>
       <c r="R8">
-        <v>0.5169385194479298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0.49962358845671268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.3135471731923663</v>
+        <v>0.35167099722247108</v>
       </c>
       <c r="C9">
-        <v>0.4116566615894633</v>
+        <v>0.41165666158946329</v>
       </c>
       <c r="D9">
-        <v>0.444270226682197</v>
+        <v>0.44427022668219701</v>
       </c>
       <c r="E9">
-        <v>0.3193262252486336</v>
+        <v>0.31932622524863358</v>
       </c>
       <c r="F9">
-        <v>0.4361616342621629</v>
+        <v>0.43616163426216292</v>
       </c>
       <c r="G9">
-        <v>0.463981722067915</v>
+        <v>0.46398172206791499</v>
       </c>
       <c r="H9">
-        <v>0.5140220410357494</v>
+        <v>0.51402204103574944</v>
       </c>
       <c r="I9">
-        <v>0.557476928590628</v>
+        <v>0.55747692859062803</v>
       </c>
       <c r="J9">
-        <v>0.4663112624316818</v>
+        <v>0.46631126243168181</v>
       </c>
       <c r="K9">
-        <v>0.4727622972851895</v>
+        <v>0.47276229728518948</v>
       </c>
       <c r="L9">
-        <v>0.3951258847773497</v>
+        <v>0.39512588477734972</v>
       </c>
       <c r="M9">
-        <v>0.4454349968640803</v>
+        <v>0.43177134665352568</v>
       </c>
       <c r="N9">
-        <v>0.4371920078845982</v>
+        <v>0.44543499686408028</v>
       </c>
       <c r="O9">
-        <v>0.5891497177672251</v>
+        <v>0.43719200788459822</v>
       </c>
       <c r="P9">
-        <v>0.508601379804677</v>
+        <v>0.58914971776722513</v>
       </c>
       <c r="Q9">
-        <v>0.4043544485261177</v>
+        <v>0.50860137980467701</v>
       </c>
       <c r="R9">
-        <v>0.4317713466535257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>0.40435444852611768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2801408248311539</v>
+        <v>0.34825405949130622</v>
       </c>
       <c r="C10">
-        <v>0.4640034487713752</v>
+        <v>0.46400344877137523</v>
       </c>
       <c r="D10">
         <v>0.3678689466877425</v>
       </c>
       <c r="E10">
-        <v>0.3974709009915218</v>
+        <v>0.39747090099152182</v>
       </c>
       <c r="F10">
-        <v>0.4539445322603822</v>
+        <v>0.45394453226038223</v>
       </c>
       <c r="G10">
-        <v>0.7048426498060066</v>
+        <v>0.70484264980600664</v>
       </c>
       <c r="H10">
-        <v>0.4969104756430522</v>
+        <v>0.49691047564305219</v>
       </c>
       <c r="I10">
-        <v>0.5056761028883461</v>
+        <v>0.50567610288834608</v>
       </c>
       <c r="J10">
-        <v>0.4655841356516741</v>
+        <v>0.46558413565167411</v>
       </c>
       <c r="K10">
-        <v>0.4347607414858456</v>
+        <v>0.43476074148584559</v>
       </c>
       <c r="L10">
-        <v>0.4813191550510131</v>
+        <v>0.48131915505101308</v>
       </c>
       <c r="M10">
-        <v>0.450064664463285</v>
+        <v>0.48555826986636008</v>
       </c>
       <c r="N10">
-        <v>0.3494036499497054</v>
+        <v>0.45006466446328502</v>
       </c>
       <c r="O10">
-        <v>0.4863486133065096</v>
+        <v>0.34940364994970541</v>
       </c>
       <c r="P10">
-        <v>0.4605546773961776</v>
+        <v>0.48634861330650958</v>
       </c>
       <c r="Q10">
-        <v>0.4019974134214686</v>
+        <v>0.46055467739617761</v>
       </c>
       <c r="R10">
-        <v>0.4855582698663601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0.40199741342146861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0.6544080604534005</v>
+        <v>0.7453400503778338</v>
       </c>
       <c r="C11">
-        <v>0.8025188916876574</v>
+        <v>0.80251889168765744</v>
       </c>
       <c r="D11">
-        <v>0.7477581863979849</v>
+        <v>0.74775818639798486</v>
       </c>
       <c r="E11">
-        <v>0.8038790931989924</v>
+        <v>0.80387909319899242</v>
       </c>
       <c r="F11">
-        <v>0.7140050377833753</v>
+        <v>0.71400503778337532</v>
       </c>
       <c r="G11">
-        <v>0.6330982367758187</v>
+        <v>0.63309823677581867</v>
       </c>
       <c r="H11">
-        <v>0.5950629722921914</v>
+        <v>0.59506297229219141</v>
       </c>
       <c r="I11">
-        <v>0.9049874055415618</v>
+        <v>0.90498740554156176</v>
       </c>
       <c r="J11">
         <v>0.7392443324937028</v>
       </c>
       <c r="K11">
-        <v>0.6463476070528967</v>
+        <v>0.64634760705289673</v>
       </c>
       <c r="L11">
-        <v>0.5987405541561713</v>
+        <v>0.59874055415617133</v>
       </c>
       <c r="M11">
-        <v>0.6411586901763224</v>
+        <v>0.57914357682619644</v>
       </c>
       <c r="N11">
+        <v>0.64115869017632243</v>
+      </c>
+      <c r="O11">
         <v>0.6859949622166247</v>
       </c>
-      <c r="O11">
-        <v>0.7662468513853904</v>
-      </c>
       <c r="P11">
-        <v>0.6704785894206549</v>
+        <v>0.76624685138539039</v>
       </c>
       <c r="Q11">
-        <v>0.5644836272040302</v>
+        <v>0.67047858942065486</v>
       </c>
       <c r="R11">
-        <v>0.5791435768261964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0.56448362720403022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0.7355747961827719</v>
+        <v>0.78253175756809712</v>
       </c>
       <c r="C12">
-        <v>0.8485748593819125</v>
+        <v>0.84857485938191246</v>
       </c>
       <c r="D12">
-        <v>0.7685647475194337</v>
+        <v>0.76856474751943371</v>
       </c>
       <c r="E12">
-        <v>0.8394741831511091</v>
+        <v>0.83947418315110911</v>
       </c>
       <c r="F12">
-        <v>0.7858813120141566</v>
+        <v>0.78588131201415656</v>
       </c>
       <c r="G12">
-        <v>0.6468432029324401</v>
+        <v>0.64684320293244013</v>
       </c>
       <c r="H12">
-        <v>0.571193831763888</v>
+        <v>0.57119383176388805</v>
       </c>
       <c r="I12">
-        <v>0.7932756114516842</v>
+        <v>0.79327561145168424</v>
       </c>
       <c r="J12">
-        <v>0.9734563609934905</v>
+        <v>0.97345636099349053</v>
       </c>
       <c r="K12">
         <v>0.7702079251722177</v>
       </c>
       <c r="L12">
-        <v>0.6453896227011313</v>
+        <v>0.64538962270113132</v>
       </c>
       <c r="M12">
-        <v>0.7652151930733742</v>
+        <v>0.68002275169057702</v>
       </c>
       <c r="N12">
-        <v>0.6453896227011313</v>
+        <v>0.76521519307337416</v>
       </c>
       <c r="O12">
-        <v>0.7918852303608671</v>
+        <v>0.64538962270113132</v>
       </c>
       <c r="P12">
-        <v>0.6664349364848638</v>
+        <v>0.79188523036086711</v>
       </c>
       <c r="Q12">
-        <v>0.6364153447513113</v>
+        <v>0.66643493648486385</v>
       </c>
       <c r="R12">
-        <v>0.680022751690577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0.63641534475131134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.65651924181504884</v>
+      </c>
+      <c r="C13">
+        <v>0.66829408385985067</v>
+      </c>
+      <c r="D13">
+        <v>0.64499056371543451</v>
+      </c>
+      <c r="E13">
+        <v>0.64322638877492411</v>
+      </c>
+      <c r="F13">
+        <v>0.63276442110445552</v>
+      </c>
+      <c r="G13">
+        <v>0.57204398129154022</v>
+      </c>
+      <c r="H13">
+        <v>0.56076146713711328</v>
+      </c>
+      <c r="I13">
+        <v>0.69426438007713132</v>
+      </c>
+      <c r="J13">
+        <v>0.70554689423155825</v>
+      </c>
+      <c r="K13">
+        <v>0.94814146221383444</v>
+      </c>
+      <c r="L13">
+        <v>0.62755395093132027</v>
+      </c>
+      <c r="M13">
+        <v>0.69131041273488147</v>
+      </c>
+      <c r="N13">
+        <v>0.67764831377697543</v>
+      </c>
+      <c r="O13">
+        <v>0.58164437515385248</v>
+      </c>
+      <c r="P13">
+        <v>0.70345450069746451</v>
+      </c>
+      <c r="Q13">
+        <v>0.62816936079428898</v>
+      </c>
+      <c r="R13">
+        <v>0.58976778534503982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>0.5753261672273734</v>
-      </c>
-      <c r="C13">
-        <v>0.6682940838598507</v>
-      </c>
-      <c r="D13">
-        <v>0.6449905637154345</v>
-      </c>
-      <c r="E13">
-        <v>0.6432263887749241</v>
-      </c>
-      <c r="F13">
-        <v>0.6327644211044555</v>
-      </c>
-      <c r="G13">
-        <v>0.5720439812915402</v>
-      </c>
-      <c r="H13">
-        <v>0.5607614671371133</v>
-      </c>
-      <c r="I13">
-        <v>0.6942643800771313</v>
-      </c>
-      <c r="J13">
-        <v>0.7055468942315583</v>
-      </c>
-      <c r="K13">
-        <v>0.9481414622138344</v>
-      </c>
-      <c r="L13">
-        <v>0.6275539509313203</v>
-      </c>
-      <c r="M13">
-        <v>0.6776483137769754</v>
-      </c>
-      <c r="N13">
-        <v>0.5816443751538525</v>
-      </c>
-      <c r="O13">
-        <v>0.7034545006974645</v>
-      </c>
-      <c r="P13">
-        <v>0.628169360794289</v>
-      </c>
-      <c r="Q13">
-        <v>0.5897677853450398</v>
-      </c>
-      <c r="R13">
-        <v>0.6913104127348815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0.55041246562786439</v>
+      </c>
+      <c r="C14">
+        <v>0.56585348656842704</v>
+      </c>
+      <c r="D14">
+        <v>0.51632235775223856</v>
+      </c>
+      <c r="E14">
+        <v>0.55658182330959605</v>
+      </c>
+      <c r="F14">
+        <v>0.54991891701332585</v>
+      </c>
+      <c r="G14">
+        <v>0.467531551857858</v>
+      </c>
+      <c r="H14">
+        <v>0.48420644433476701</v>
+      </c>
+      <c r="I14">
+        <v>0.54353803849679194</v>
+      </c>
+      <c r="J14">
+        <v>0.57829796234929143</v>
+      </c>
+      <c r="K14">
+        <v>0.57149404216315303</v>
+      </c>
+      <c r="L14">
+        <v>0.95244306564196568</v>
+      </c>
+      <c r="M14">
+        <v>0.4936896284284002</v>
+      </c>
+      <c r="N14">
+        <v>0.55661707678206307</v>
+      </c>
+      <c r="O14">
+        <v>0.4608686455615878</v>
+      </c>
+      <c r="P14">
+        <v>0.56655855601776772</v>
+      </c>
+      <c r="Q14">
+        <v>0.48328985405062402</v>
+      </c>
+      <c r="R14">
+        <v>0.47824860748783748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>0.4917390255668114</v>
-      </c>
-      <c r="C14">
-        <v>0.6231307284129282</v>
-      </c>
-      <c r="D14">
-        <v>0.5524602026049205</v>
-      </c>
-      <c r="E14">
-        <v>0.6380849011095031</v>
-      </c>
-      <c r="F14">
-        <v>0.5460082006753497</v>
-      </c>
-      <c r="G14">
-        <v>0.5235166425470333</v>
-      </c>
-      <c r="H14">
-        <v>0.5393150024119633</v>
-      </c>
-      <c r="I14">
-        <v>0.6088398456343463</v>
-      </c>
-      <c r="J14">
-        <v>0.6566570188133141</v>
-      </c>
-      <c r="K14">
-        <v>0.6463458755426917</v>
-      </c>
-      <c r="L14">
-        <v>0.6449589966232513</v>
-      </c>
-      <c r="M14">
-        <v>0.649662325132658</v>
-      </c>
-      <c r="N14">
-        <v>0.5065123010130246</v>
-      </c>
-      <c r="O14">
-        <v>0.6315123010130246</v>
-      </c>
-      <c r="P14">
-        <v>0.5438977327544622</v>
-      </c>
-      <c r="Q14">
-        <v>0.5078388808490111</v>
-      </c>
-      <c r="R14">
-        <v>0.5821273516642547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
       <c r="B15">
-        <v>0.433257198487288</v>
+        <v>0.40232897742164969</v>
       </c>
       <c r="C15">
-        <v>0.5032762946044108</v>
+        <v>0.50327629460441081</v>
       </c>
       <c r="D15">
-        <v>0.3463885872617666</v>
+        <v>0.34638858726176658</v>
       </c>
       <c r="E15">
-        <v>0.4327704347174898</v>
+        <v>0.43277043471748983</v>
       </c>
       <c r="F15">
-        <v>0.3803497210469166</v>
+        <v>0.38034972104691661</v>
       </c>
       <c r="G15">
-        <v>0.5187029617703224</v>
+        <v>0.51870296177032238</v>
       </c>
       <c r="H15">
-        <v>0.4326581046167671</v>
+        <v>0.43265810461676713</v>
       </c>
       <c r="I15">
-        <v>0.4411577489047815</v>
+        <v>0.44115774890478149</v>
       </c>
       <c r="J15">
-        <v>0.4828696596397948</v>
+        <v>0.48286965963979478</v>
       </c>
       <c r="K15">
-        <v>0.5024899838993522</v>
+        <v>0.50248998389935218</v>
       </c>
       <c r="L15">
         <v>0.4829445463736099</v>
       </c>
       <c r="M15">
-        <v>0.5418804058860973</v>
+        <v>0.92754708503388628</v>
       </c>
       <c r="N15">
-        <v>0.3736099150035571</v>
+        <v>0.54188040588609732</v>
       </c>
       <c r="O15">
-        <v>0.4884112779421125</v>
+        <v>0.37360991500355711</v>
       </c>
       <c r="P15">
-        <v>0.4594675553225746</v>
+        <v>0.48841127794211248</v>
       </c>
       <c r="Q15">
-        <v>0.3671322125285505</v>
+        <v>0.45946755532257461</v>
       </c>
       <c r="R15">
-        <v>0.9275470850338863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0.36713221252855049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.589197656204676</v>
+        <v>0.60512970548078804</v>
       </c>
       <c r="C16">
-        <v>0.7072576434414342</v>
+        <v>0.655061439438268</v>
       </c>
       <c r="D16">
-        <v>0.6485467308696409</v>
+        <v>0.61507704310512967</v>
       </c>
       <c r="E16">
-        <v>0.7196727968904102</v>
+        <v>0.60903062219621606</v>
       </c>
       <c r="F16">
-        <v>0.6243545860648605</v>
+        <v>0.63029061829529942</v>
       </c>
       <c r="G16">
-        <v>0.547078958055346</v>
+        <v>0.62775502243027115</v>
       </c>
       <c r="H16">
-        <v>0.5173754133549922</v>
+        <v>0.62034328067095768</v>
       </c>
       <c r="I16">
-        <v>0.666183210535476</v>
+        <v>0.67154281256095183</v>
       </c>
       <c r="J16">
-        <v>0.700643963566746</v>
+        <v>0.69143748780963521</v>
       </c>
       <c r="K16">
-        <v>0.6725068167314497</v>
+        <v>0.6979715233079774</v>
       </c>
       <c r="L16">
-        <v>0.5679642629227823</v>
+        <v>0.5769455822118198</v>
       </c>
       <c r="M16">
-        <v>0.7464175900678772</v>
+        <v>0.63038814121318509</v>
       </c>
       <c r="N16">
-        <v>0.5831061089516737</v>
+        <v>0.94187634094012096</v>
       </c>
       <c r="O16">
-        <v>0.6449498172535824</v>
+        <v>0.54739613809245169</v>
       </c>
       <c r="P16">
-        <v>0.5970296455299646</v>
+        <v>0.66091281451141015</v>
       </c>
       <c r="Q16">
-        <v>0.5382607182224285</v>
+        <v>0.64033547883752684</v>
       </c>
       <c r="R16">
-        <v>0.630330103846377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>0.57860347181587668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.5561177774565081</v>
+        <v>0.62613573788546251</v>
       </c>
       <c r="C17">
-        <v>0.7682039419786998</v>
+        <v>0.65101872246696035</v>
       </c>
       <c r="D17">
-        <v>0.7688304178111898</v>
+        <v>0.66031112334801767</v>
       </c>
       <c r="E17">
-        <v>0.7799624114500506</v>
+        <v>0.65421943832599116</v>
       </c>
       <c r="F17">
-        <v>0.7143752108332129</v>
+        <v>0.66296117841409696</v>
       </c>
       <c r="G17">
-        <v>0.5774661462098212</v>
+        <v>0.46651294052863429</v>
       </c>
       <c r="H17">
-        <v>0.5954411835574189</v>
+        <v>0.54240088105726869</v>
       </c>
       <c r="I17">
-        <v>0.784588694520746</v>
+        <v>0.67173733480176212</v>
       </c>
       <c r="J17">
-        <v>0.6640161919907475</v>
+        <v>0.5567524779735683</v>
       </c>
       <c r="K17">
-        <v>0.6110548889210159</v>
+        <v>0.52997659691629961</v>
       </c>
       <c r="L17">
-        <v>0.5354922654329912</v>
+        <v>0.4578400330396476</v>
       </c>
       <c r="M17">
-        <v>0.5922124234976628</v>
+        <v>0.47405011013215859</v>
       </c>
       <c r="N17">
-        <v>0.7628066117295552</v>
+        <v>0.52281800660792954</v>
       </c>
       <c r="O17">
-        <v>0.7718182256276805</v>
+        <v>0.96782075991189431</v>
       </c>
       <c r="P17">
-        <v>0.7287841549804829</v>
+        <v>0.79549834801762109</v>
       </c>
       <c r="Q17">
-        <v>0.6237289769167751</v>
+        <v>0.61928689427312777</v>
       </c>
       <c r="R17">
-        <v>0.579201002361332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>0.51951404185022021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.5139063222567219</v>
+        <v>0.55929180154588098</v>
       </c>
       <c r="C18">
-        <v>0.6430600515293652</v>
+        <v>0.64306005152936518</v>
       </c>
       <c r="D18">
-        <v>0.5401995111316641</v>
+        <v>0.54019951113166409</v>
       </c>
       <c r="E18">
-        <v>0.5496465614058268</v>
+        <v>0.54964656140582679</v>
       </c>
       <c r="F18">
-        <v>0.5993922177445993</v>
+        <v>0.59939221774459928</v>
       </c>
       <c r="G18">
-        <v>0.4410385148972716</v>
+        <v>0.44103851489727158</v>
       </c>
       <c r="H18">
-        <v>0.469709982162912</v>
+        <v>0.46970998216291199</v>
       </c>
       <c r="I18">
-        <v>0.616898989231684</v>
+        <v>0.61689898923168396</v>
       </c>
       <c r="J18">
-        <v>0.4909823611019357</v>
+        <v>0.49098236110193572</v>
       </c>
       <c r="K18">
         <v>0.4625751469908172</v>
       </c>
       <c r="L18">
-        <v>0.4131598070951972</v>
+        <v>0.41315980709519717</v>
       </c>
       <c r="M18">
+        <v>0.45471361564378682</v>
+      </c>
+      <c r="N18">
         <v>0.4656140582678206</v>
       </c>
-      <c r="N18">
-        <v>0.6397568870978397</v>
-      </c>
       <c r="O18">
-        <v>0.9672986721278986</v>
+        <v>0.63975688709783973</v>
       </c>
       <c r="P18">
-        <v>0.5848582942458875</v>
+        <v>0.96729867212789855</v>
       </c>
       <c r="Q18">
-        <v>0.5290348153531083</v>
+        <v>0.58485829424588753</v>
       </c>
       <c r="R18">
-        <v>0.4547136156437868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>0.52903481535310826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>0.06714736367733214</v>
+        <v>0.21180712032447049</v>
       </c>
       <c r="C19">
-        <v>0.3433979269941415</v>
+        <v>0.34339792699414151</v>
       </c>
       <c r="D19">
-        <v>0.3249211356466877</v>
+        <v>0.32492113564668768</v>
       </c>
       <c r="E19">
-        <v>0.1825146462370437</v>
+        <v>0.18251464623704369</v>
       </c>
       <c r="F19">
         <v>0.2947273546642632</v>
       </c>
       <c r="G19">
-        <v>0.2609283461018477</v>
+        <v>0.26092834610184767</v>
       </c>
       <c r="H19">
-        <v>0.3258224425416855</v>
+        <v>0.32582244254168552</v>
       </c>
       <c r="I19">
-        <v>0.3668319062640829</v>
+        <v>0.36683190626408291</v>
       </c>
       <c r="J19">
-        <v>0.3091482649842272</v>
+        <v>0.30914826498422721</v>
       </c>
       <c r="K19">
-        <v>0.2690401081568274</v>
+        <v>0.26904010815682738</v>
       </c>
       <c r="L19">
-        <v>0.288418206399279</v>
+        <v>0.28841820639927901</v>
       </c>
       <c r="M19">
-        <v>0.281207751239297</v>
+        <v>0.2947273546642632</v>
       </c>
       <c r="N19">
-        <v>0.2893195132942767</v>
+        <v>0.28120775123929698</v>
       </c>
       <c r="O19">
-        <v>0.3560162235241099</v>
+        <v>0.28931951329427669</v>
       </c>
       <c r="P19">
+        <v>0.35601622352410989</v>
+      </c>
+      <c r="Q19">
         <v>0.821991888237945</v>
       </c>
-      <c r="Q19">
-        <v>0.3600721045515998</v>
-      </c>
       <c r="R19">
-        <v>0.2947273546642632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>0.36007210455159983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.12516933080466</v>
+        <v>0.1608416869863632</v>
       </c>
       <c r="C20">
-        <v>0.3312562087961708</v>
+        <v>0.33125620879617079</v>
       </c>
       <c r="D20">
-        <v>0.2509708299467173</v>
+        <v>0.25097082994671732</v>
       </c>
       <c r="E20">
-        <v>0.1302266775038382</v>
+        <v>0.13022667750383821</v>
       </c>
       <c r="F20">
-        <v>0.2629820283572654</v>
+        <v>0.26298202835726542</v>
       </c>
       <c r="G20">
-        <v>0.1911857671814323</v>
+        <v>0.19118576718143229</v>
       </c>
       <c r="H20">
-        <v>0.31987717872302</v>
+        <v>0.31987717872302002</v>
       </c>
       <c r="I20">
         <v>0.3283662963966405</v>
       </c>
       <c r="J20">
-        <v>0.3204190372979319</v>
+        <v>0.32041903729793192</v>
       </c>
       <c r="K20">
-        <v>0.3256570035220807</v>
+        <v>0.32565700352208071</v>
       </c>
       <c r="L20">
-        <v>0.3105752731870315</v>
+        <v>0.31057527318703149</v>
       </c>
       <c r="M20">
-        <v>0.287636593515759</v>
+        <v>0.30109274812607251</v>
       </c>
       <c r="N20">
-        <v>0.1903729793190644</v>
+        <v>0.28763659351575899</v>
       </c>
       <c r="O20">
-        <v>0.332972094283392</v>
+        <v>0.19037297931906441</v>
       </c>
       <c r="P20">
-        <v>0.3800234805382462</v>
+        <v>0.33297209428339197</v>
       </c>
       <c r="Q20">
-        <v>0.9293777657364761</v>
+        <v>0.38002348053824619</v>
       </c>
       <c r="R20">
-        <v>0.3010927481260725</v>
+        <v>0.92937776573647612</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/mbert/results_pos.xlsx
+++ b/results/acl/mbert/results_pos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aturt\Documents\typology_of_crosslingual\results\acl\mbert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -24,6 +19,9 @@
     <t>Language</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
   </si>
   <si>
     <t>Maltese</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
   <si>
     <t>Thai</t>
@@ -84,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,19 +143,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,10 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,885 +430,883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>0.9824459770114943</v>
+      </c>
+      <c r="C2">
+        <v>0.8229394636015326</v>
+      </c>
+      <c r="D2">
+        <v>0.7516291187739463</v>
+      </c>
+      <c r="E2">
+        <v>0.8470927203065134</v>
+      </c>
+      <c r="F2">
+        <v>0.7861885057471264</v>
+      </c>
+      <c r="G2">
+        <v>0.5591141762452108</v>
+      </c>
+      <c r="H2">
+        <v>0.574663601532567</v>
+      </c>
+      <c r="I2">
+        <v>0.7238620689655172</v>
+      </c>
+      <c r="J2">
+        <v>0.667656704980843</v>
+      </c>
+      <c r="K2">
+        <v>0.6131157088122605</v>
+      </c>
+      <c r="L2">
+        <v>0.5895019157088123</v>
+      </c>
+      <c r="M2">
+        <v>0.5680674329501916</v>
+      </c>
+      <c r="N2">
+        <v>0.6250727969348659</v>
+      </c>
+      <c r="O2">
+        <v>0.6401900383141762</v>
+      </c>
+      <c r="P2">
+        <v>0.7131310344827586</v>
+      </c>
+      <c r="Q2">
+        <v>0.6425164750957855</v>
+      </c>
+      <c r="R2">
+        <v>0.5379708812260536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3">
+        <v>0.844756728092271</v>
+      </c>
+      <c r="C3">
+        <v>0.9882388591125169</v>
+      </c>
+      <c r="D3">
+        <v>0.777674665252552</v>
+      </c>
+      <c r="E3">
+        <v>0.8765174901990492</v>
+      </c>
+      <c r="F3">
+        <v>0.7590954716766728</v>
+      </c>
+      <c r="G3">
+        <v>0.5635499327664248</v>
+      </c>
+      <c r="H3">
+        <v>0.5846858961004526</v>
+      </c>
+      <c r="I3">
+        <v>0.8137535273953145</v>
+      </c>
+      <c r="J3">
+        <v>0.6331319482585557</v>
+      </c>
+      <c r="K3">
+        <v>0.5701785951023655</v>
+      </c>
+      <c r="L3">
+        <v>0.5201984810893733</v>
+      </c>
+      <c r="M3">
+        <v>0.5320732561883298</v>
+      </c>
+      <c r="N3">
+        <v>0.5775458798128823</v>
+      </c>
+      <c r="O3">
+        <v>0.6349311566068825</v>
+      </c>
+      <c r="P3">
+        <v>0.7232628169921024</v>
+      </c>
+      <c r="Q3">
+        <v>0.6829794890248291</v>
+      </c>
+      <c r="R3">
+        <v>0.5205772617942842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4">
+        <v>0.829290758366595</v>
+      </c>
+      <c r="C4">
+        <v>0.8850936444580902</v>
+      </c>
+      <c r="D4">
+        <v>0.9656892846177464</v>
+      </c>
+      <c r="E4">
+        <v>0.8583819465766043</v>
+      </c>
+      <c r="F4">
+        <v>0.8271415412956709</v>
+      </c>
+      <c r="G4">
+        <v>0.6410807491556647</v>
+      </c>
+      <c r="H4">
+        <v>0.6007829290758366</v>
+      </c>
+      <c r="I4">
+        <v>0.7793214614676083</v>
+      </c>
+      <c r="J4">
+        <v>0.77655818237642</v>
+      </c>
+      <c r="K4">
+        <v>0.723672090881179</v>
+      </c>
+      <c r="L4">
+        <v>0.606002456248081</v>
+      </c>
+      <c r="M4">
+        <v>0.6220448265274793</v>
+      </c>
+      <c r="N4">
+        <v>0.6947344181762358</v>
+      </c>
+      <c r="O4">
+        <v>0.7480810561866749</v>
+      </c>
+      <c r="P4">
+        <v>0.7457783236106846</v>
+      </c>
+      <c r="Q4">
+        <v>0.6424623887012588</v>
+      </c>
+      <c r="R4">
+        <v>0.6727817009517961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0.89818534423050289</v>
-      </c>
-      <c r="C2">
-        <v>0.83972849425128138</v>
-      </c>
-      <c r="D2">
-        <v>0.76100106201228235</v>
-      </c>
-      <c r="E2">
-        <v>0.84083668098074527</v>
-      </c>
-      <c r="F2">
-        <v>0.81447107170891631</v>
-      </c>
-      <c r="G2">
-        <v>0.60146834741653965</v>
-      </c>
-      <c r="H2">
-        <v>0.5479983377199058</v>
-      </c>
-      <c r="I2">
-        <v>0.73371196379923354</v>
-      </c>
-      <c r="J2">
-        <v>0.68292007203213745</v>
-      </c>
-      <c r="K2">
-        <v>0.60899478228748216</v>
-      </c>
-      <c r="L2">
-        <v>0.59971371842822185</v>
-      </c>
-      <c r="M2">
-        <v>0.56314355635591262</v>
-      </c>
-      <c r="N2">
-        <v>0.6265872466177218</v>
-      </c>
-      <c r="O2">
-        <v>0.62058456849979227</v>
-      </c>
-      <c r="P2">
-        <v>0.72147573532806941</v>
-      </c>
-      <c r="Q2">
-        <v>0.64200951193609457</v>
-      </c>
-      <c r="R2">
-        <v>0.49729879484693168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.83176153587066348</v>
-      </c>
-      <c r="C3">
-        <v>0.89811384304479625</v>
-      </c>
-      <c r="D3">
-        <v>0.7250757830919502</v>
-      </c>
-      <c r="E3">
-        <v>0.84881273155944759</v>
-      </c>
-      <c r="F3">
-        <v>0.76700909397103401</v>
-      </c>
-      <c r="G3">
-        <v>0.56327888177837659</v>
-      </c>
-      <c r="H3">
-        <v>0.59557089929269114</v>
-      </c>
-      <c r="I3">
-        <v>0.73816941731222629</v>
-      </c>
-      <c r="J3">
-        <v>0.60500168406871002</v>
-      </c>
-      <c r="K3">
-        <v>0.55064836645335125</v>
-      </c>
-      <c r="L3">
-        <v>0.51334624452677668</v>
-      </c>
-      <c r="M3">
-        <v>0.53220781407881446</v>
-      </c>
-      <c r="N3">
-        <v>0.55056416301785116</v>
-      </c>
-      <c r="O3">
-        <v>0.64057763556753111</v>
-      </c>
-      <c r="P3">
-        <v>0.72212866284944421</v>
-      </c>
-      <c r="Q3">
-        <v>0.66470191983832938</v>
-      </c>
-      <c r="R3">
-        <v>0.50513640956551031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.82929075836659505</v>
-      </c>
-      <c r="C4">
-        <v>0.88509364445809025</v>
-      </c>
-      <c r="D4">
-        <v>0.96568928461774639</v>
-      </c>
-      <c r="E4">
-        <v>0.85838194657660427</v>
-      </c>
-      <c r="F4">
-        <v>0.82714154129567086</v>
-      </c>
-      <c r="G4">
-        <v>0.64108074915566471</v>
-      </c>
-      <c r="H4">
-        <v>0.60078292907583664</v>
-      </c>
-      <c r="I4">
-        <v>0.77041756217377955</v>
-      </c>
-      <c r="J4">
-        <v>0.77655818237642005</v>
-      </c>
-      <c r="K4">
-        <v>0.72367209088117901</v>
-      </c>
-      <c r="L4">
-        <v>0.60600245624808102</v>
-      </c>
-      <c r="M4">
-        <v>0.62204482652747928</v>
-      </c>
-      <c r="N4">
-        <v>0.69473441817623582</v>
-      </c>
-      <c r="O4">
-        <v>0.74808105618667486</v>
-      </c>
-      <c r="P4">
-        <v>0.74577832361068463</v>
-      </c>
-      <c r="Q4">
-        <v>0.64246238870125882</v>
-      </c>
-      <c r="R4">
-        <v>0.67278170095179612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
-        <v>0.87385703797637326</v>
+        <v>0.8738570379763733</v>
       </c>
       <c r="C5">
-        <v>0.85446839751718617</v>
+        <v>0.8544683975171862</v>
       </c>
       <c r="D5">
-        <v>0.77564573182940666</v>
+        <v>0.7756457318294067</v>
       </c>
       <c r="E5">
         <v>0.9789094306881132</v>
       </c>
       <c r="F5">
-        <v>0.79176399919909235</v>
+        <v>0.7917639991990923</v>
       </c>
       <c r="G5">
-        <v>0.62213842354668625</v>
+        <v>0.6221384235466862</v>
       </c>
       <c r="H5">
-        <v>0.56627511179336576</v>
+        <v>0.5662751117933658</v>
       </c>
       <c r="I5">
-        <v>0.8279049589534806</v>
+        <v>0.8012414069278516</v>
       </c>
       <c r="J5">
-        <v>0.74561169325235266</v>
+        <v>0.7456116932523527</v>
       </c>
       <c r="K5">
-        <v>0.61409597543883065</v>
+        <v>0.6140959754388307</v>
       </c>
       <c r="L5">
-        <v>0.56911165988119872</v>
+        <v>0.5691116598811987</v>
       </c>
       <c r="M5">
         <v>0.5502903290395782</v>
       </c>
       <c r="N5">
-        <v>0.59604218113862373</v>
+        <v>0.5960421811386237</v>
       </c>
       <c r="O5">
-        <v>0.68367483147567243</v>
+        <v>0.6836748314756724</v>
       </c>
       <c r="P5">
-        <v>0.76613495294667289</v>
+        <v>0.7661349529466729</v>
       </c>
       <c r="Q5">
-        <v>0.66912500834278854</v>
+        <v>0.6691250083427885</v>
       </c>
       <c r="R5">
-        <v>0.57601948875392106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5760194887539211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.80445224459634213</v>
+        <v>0.8044522445963421</v>
       </c>
       <c r="C6">
-        <v>0.77452429336781825</v>
+        <v>0.7745242933678183</v>
       </c>
       <c r="D6">
-        <v>0.73766857565121002</v>
+        <v>0.73766857565121</v>
       </c>
       <c r="E6">
-        <v>0.75799002401625715</v>
+        <v>0.7579900240162571</v>
       </c>
       <c r="F6">
-        <v>0.97579900240162576</v>
+        <v>0.9757990024016258</v>
       </c>
       <c r="G6">
-        <v>0.52540181045630885</v>
+        <v>0.5254018104563088</v>
       </c>
       <c r="H6">
-        <v>0.50471088121189733</v>
+        <v>0.5047108812118973</v>
       </c>
       <c r="I6">
-        <v>0.67762793275447997</v>
+        <v>0.6810456308886015</v>
       </c>
       <c r="J6">
-        <v>0.65915388878625536</v>
+        <v>0.6591538887862554</v>
       </c>
       <c r="K6">
-        <v>0.57731387400702017</v>
+        <v>0.5773138740070202</v>
       </c>
       <c r="L6">
-        <v>0.51902826528727142</v>
+        <v>0.5190282652872714</v>
       </c>
       <c r="M6">
-        <v>0.55034176981341221</v>
+        <v>0.5503417698134122</v>
       </c>
       <c r="N6">
-        <v>0.63024200997598379</v>
+        <v>0.6302420099759838</v>
       </c>
       <c r="O6">
-        <v>0.60955108073157216</v>
+        <v>0.6095510807315722</v>
       </c>
       <c r="P6">
-        <v>0.68317014594494729</v>
+        <v>0.6831701459449473</v>
       </c>
       <c r="Q6">
         <v>0.6662663957140218</v>
       </c>
       <c r="R6">
-        <v>0.61047478292998336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.6104747829299834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.48494046229278542</v>
+        <v>0.5141525141525142</v>
       </c>
       <c r="C7">
-        <v>0.56245622227410697</v>
+        <v>0.5670163170163171</v>
       </c>
       <c r="D7">
-        <v>0.3678262899836563</v>
+        <v>0.4023476523476524</v>
       </c>
       <c r="E7">
-        <v>0.60102731730095726</v>
+        <v>0.6224608724608724</v>
       </c>
       <c r="F7">
-        <v>0.52014942797104835</v>
+        <v>0.5213120213120214</v>
       </c>
       <c r="G7">
-        <v>0.91884193322437546</v>
+        <v>0.9492174492174492</v>
       </c>
       <c r="H7">
-        <v>0.51067009105766981</v>
+        <v>0.5404595404595405</v>
       </c>
       <c r="I7">
-        <v>0.5731496614522531</v>
+        <v>0.5937395937395937</v>
       </c>
       <c r="J7">
-        <v>0.54900770487975714</v>
+        <v>0.5826673326673326</v>
       </c>
       <c r="K7">
-        <v>0.52094326406724256</v>
+        <v>0.5621878121878122</v>
       </c>
       <c r="L7">
-        <v>0.49955638571095029</v>
+        <v>0.5382950382950383</v>
       </c>
       <c r="M7">
-        <v>0.55998132150361901</v>
+        <v>0.5938228438228438</v>
       </c>
       <c r="N7">
-        <v>0.49824889096427738</v>
+        <v>0.5105727605727606</v>
       </c>
       <c r="O7">
-        <v>0.43352790100396921</v>
+        <v>0.4392274392274392</v>
       </c>
       <c r="P7">
-        <v>0.50408592108335282</v>
+        <v>0.5322177822177823</v>
       </c>
       <c r="Q7">
-        <v>0.47116507121176737</v>
+        <v>0.491008991008991</v>
       </c>
       <c r="R7">
-        <v>0.42474900770487978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4234099234099234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.54069427017984106</v>
+        <v>0.5406942701798411</v>
       </c>
       <c r="C8">
-        <v>0.58720200752823082</v>
+        <v>0.5872020075282308</v>
       </c>
       <c r="D8">
-        <v>0.56486825595984946</v>
+        <v>0.5648682559598495</v>
       </c>
       <c r="E8">
-        <v>0.56135508155583436</v>
+        <v>0.5613550815558344</v>
       </c>
       <c r="F8">
-        <v>0.53718109577582607</v>
+        <v>0.5371810957758261</v>
       </c>
       <c r="G8">
-        <v>0.56227519866164788</v>
+        <v>0.5622751986616479</v>
       </c>
       <c r="H8">
-        <v>0.89452112086992885</v>
+        <v>0.8945211208699289</v>
       </c>
       <c r="I8">
-        <v>0.62827268925135926</v>
+        <v>0.6271016311166876</v>
       </c>
       <c r="J8">
         <v>0.550564617314931</v>
       </c>
       <c r="K8">
-        <v>0.57331660393140949</v>
+        <v>0.5733166039314095</v>
       </c>
       <c r="L8">
-        <v>0.50388958594730238</v>
+        <v>0.5038895859473024</v>
       </c>
       <c r="M8">
-        <v>0.51693851944792979</v>
+        <v>0.5169385194479298</v>
       </c>
       <c r="N8">
-        <v>0.55533249686323716</v>
+        <v>0.5553324968632372</v>
       </c>
       <c r="O8">
-        <v>0.53759933082392308</v>
+        <v>0.5375993308239231</v>
       </c>
       <c r="P8">
-        <v>0.59891258887494769</v>
+        <v>0.5989125888749477</v>
       </c>
       <c r="Q8">
-        <v>0.55140108741112503</v>
+        <v>0.551401087411125</v>
       </c>
       <c r="R8">
-        <v>0.49962358845671268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4996235884567127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.35167099722247108</v>
+        <v>0.3516709972224711</v>
       </c>
       <c r="C9">
-        <v>0.41165666158946329</v>
+        <v>0.4116566615894633</v>
       </c>
       <c r="D9">
-        <v>0.44427022668219701</v>
+        <v>0.444270226682197</v>
       </c>
       <c r="E9">
-        <v>0.31932622524863358</v>
+        <v>0.3193262252486336</v>
       </c>
       <c r="F9">
-        <v>0.43616163426216292</v>
+        <v>0.4361616342621629</v>
       </c>
       <c r="G9">
-        <v>0.46398172206791499</v>
+        <v>0.463981722067915</v>
       </c>
       <c r="H9">
-        <v>0.51402204103574944</v>
+        <v>0.5140220410357494</v>
       </c>
       <c r="I9">
-        <v>0.55747692859062803</v>
+        <v>0.3885852522175433</v>
       </c>
       <c r="J9">
-        <v>0.46631126243168181</v>
+        <v>0.4663112624316818</v>
       </c>
       <c r="K9">
-        <v>0.47276229728518948</v>
+        <v>0.4727622972851895</v>
       </c>
       <c r="L9">
-        <v>0.39512588477734972</v>
+        <v>0.3951258847773497</v>
       </c>
       <c r="M9">
-        <v>0.43177134665352568</v>
+        <v>0.4317713466535257</v>
       </c>
       <c r="N9">
-        <v>0.44543499686408028</v>
+        <v>0.4454349968640803</v>
       </c>
       <c r="O9">
-        <v>0.43719200788459822</v>
+        <v>0.4371920078845982</v>
       </c>
       <c r="P9">
-        <v>0.58914971776722513</v>
+        <v>0.5891497177672251</v>
       </c>
       <c r="Q9">
-        <v>0.50860137980467701</v>
+        <v>0.508601379804677</v>
       </c>
       <c r="R9">
-        <v>0.40435444852611768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4043544485261177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.34825405949130622</v>
+        <v>0.3482540594913062</v>
       </c>
       <c r="C10">
-        <v>0.46400344877137523</v>
+        <v>0.4640034487713752</v>
       </c>
       <c r="D10">
         <v>0.3678689466877425</v>
       </c>
       <c r="E10">
-        <v>0.39747090099152182</v>
+        <v>0.3974709009915218</v>
       </c>
       <c r="F10">
-        <v>0.45394453226038223</v>
+        <v>0.4539445322603822</v>
       </c>
       <c r="G10">
-        <v>0.70484264980600664</v>
+        <v>0.7048426498060066</v>
       </c>
       <c r="H10">
-        <v>0.49691047564305219</v>
+        <v>0.4969104756430522</v>
       </c>
       <c r="I10">
-        <v>0.50567610288834608</v>
+        <v>0.4925276620204052</v>
       </c>
       <c r="J10">
-        <v>0.46558413565167411</v>
+        <v>0.4655841356516741</v>
       </c>
       <c r="K10">
-        <v>0.43476074148584559</v>
+        <v>0.4347607414858456</v>
       </c>
       <c r="L10">
-        <v>0.48131915505101308</v>
+        <v>0.4813191550510131</v>
       </c>
       <c r="M10">
-        <v>0.48555826986636008</v>
+        <v>0.4855582698663601</v>
       </c>
       <c r="N10">
-        <v>0.45006466446328502</v>
+        <v>0.450064664463285</v>
       </c>
       <c r="O10">
-        <v>0.34940364994970541</v>
+        <v>0.3494036499497054</v>
       </c>
       <c r="P10">
-        <v>0.48634861330650958</v>
+        <v>0.4863486133065096</v>
       </c>
       <c r="Q10">
-        <v>0.46055467739617761</v>
+        <v>0.4605546773961776</v>
       </c>
       <c r="R10">
-        <v>0.40199741342146861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4019974134214686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.7453400503778338</v>
+        <v>0.7381154499151104</v>
       </c>
       <c r="C11">
-        <v>0.80251889168765744</v>
+        <v>0.8202886247877759</v>
       </c>
       <c r="D11">
-        <v>0.74775818639798486</v>
+        <v>0.750169779286927</v>
       </c>
       <c r="E11">
-        <v>0.80387909319899242</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="F11">
-        <v>0.71400503778337532</v>
+        <v>0.6646010186757215</v>
       </c>
       <c r="G11">
-        <v>0.63309823677581867</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="H11">
-        <v>0.59506297229219141</v>
+        <v>0.580730050933786</v>
       </c>
       <c r="I11">
-        <v>0.90498740554156176</v>
+        <v>0.9275891341256367</v>
       </c>
       <c r="J11">
-        <v>0.7392443324937028</v>
+        <v>0.7298811544991511</v>
       </c>
       <c r="K11">
-        <v>0.64634760705289673</v>
+        <v>0.6679966044142615</v>
       </c>
       <c r="L11">
-        <v>0.59874055415617133</v>
+        <v>0.5992359932088285</v>
       </c>
       <c r="M11">
-        <v>0.57914357682619644</v>
+        <v>0.5795415959252971</v>
       </c>
       <c r="N11">
-        <v>0.64115869017632243</v>
+        <v>0.6387945670628183</v>
       </c>
       <c r="O11">
-        <v>0.6859949622166247</v>
+        <v>0.6155348047538201</v>
       </c>
       <c r="P11">
-        <v>0.76624685138539039</v>
+        <v>0.7343803056027165</v>
       </c>
       <c r="Q11">
-        <v>0.67047858942065486</v>
+        <v>0.666723259762309</v>
       </c>
       <c r="R11">
-        <v>0.56448362720403022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5791171477079796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.78253175756809712</v>
+        <v>0.7401306447032093</v>
       </c>
       <c r="C12">
-        <v>0.84857485938191246</v>
+        <v>0.8178074410678784</v>
       </c>
       <c r="D12">
-        <v>0.76856474751943371</v>
+        <v>0.739136608917921</v>
       </c>
       <c r="E12">
-        <v>0.83947418315110911</v>
+        <v>0.7874183470604942</v>
       </c>
       <c r="F12">
-        <v>0.78588131201415656</v>
+        <v>0.7884597178831771</v>
       </c>
       <c r="G12">
-        <v>0.64684320293244013</v>
+        <v>0.6336741456025751</v>
       </c>
       <c r="H12">
-        <v>0.57119383176388805</v>
+        <v>0.5858657578339487</v>
       </c>
       <c r="I12">
-        <v>0.79327561145168424</v>
+        <v>0.7567452428287418</v>
       </c>
       <c r="J12">
-        <v>0.97345636099349053</v>
+        <v>0.9651614124775159</v>
       </c>
       <c r="K12">
-        <v>0.7702079251722177</v>
+        <v>0.7496923222569346</v>
       </c>
       <c r="L12">
-        <v>0.64538962270113132</v>
+        <v>0.6361355675470983</v>
       </c>
       <c r="M12">
-        <v>0.68002275169057702</v>
+        <v>0.6616964877402253</v>
       </c>
       <c r="N12">
-        <v>0.76521519307337416</v>
+        <v>0.7340244248792956</v>
       </c>
       <c r="O12">
-        <v>0.64538962270113132</v>
+        <v>0.636324907696677</v>
       </c>
       <c r="P12">
-        <v>0.79188523036086711</v>
+        <v>0.7894537536684654</v>
       </c>
       <c r="Q12">
-        <v>0.66643493648486385</v>
+        <v>0.6491527028306352</v>
       </c>
       <c r="R12">
-        <v>0.63641534475131134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.6231657673009562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.65651924181504884</v>
+        <v>0.6565192418150488</v>
       </c>
       <c r="C13">
-        <v>0.66829408385985067</v>
+        <v>0.6682940838598507</v>
       </c>
       <c r="D13">
-        <v>0.64499056371543451</v>
+        <v>0.6449905637154345</v>
       </c>
       <c r="E13">
-        <v>0.64322638877492411</v>
+        <v>0.6432263887749241</v>
       </c>
       <c r="F13">
-        <v>0.63276442110445552</v>
+        <v>0.6327644211044555</v>
       </c>
       <c r="G13">
-        <v>0.57204398129154022</v>
+        <v>0.5720439812915402</v>
       </c>
       <c r="H13">
-        <v>0.56076146713711328</v>
+        <v>0.5607614671371133</v>
       </c>
       <c r="I13">
-        <v>0.69426438007713132</v>
+        <v>0.6954951998030688</v>
       </c>
       <c r="J13">
-        <v>0.70554689423155825</v>
+        <v>0.7055468942315583</v>
       </c>
       <c r="K13">
-        <v>0.94814146221383444</v>
+        <v>0.9481414622138344</v>
       </c>
       <c r="L13">
-        <v>0.62755395093132027</v>
+        <v>0.6275539509313203</v>
       </c>
       <c r="M13">
-        <v>0.69131041273488147</v>
+        <v>0.6913104127348815</v>
       </c>
       <c r="N13">
-        <v>0.67764831377697543</v>
+        <v>0.6776483137769754</v>
       </c>
       <c r="O13">
-        <v>0.58164437515385248</v>
+        <v>0.5816443751538525</v>
       </c>
       <c r="P13">
-        <v>0.70345450069746451</v>
+        <v>0.7034545006974645</v>
       </c>
       <c r="Q13">
-        <v>0.62816936079428898</v>
+        <v>0.628169360794289</v>
       </c>
       <c r="R13">
-        <v>0.58976778534503982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5897677853450398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.55041246562786439</v>
+        <v>0.5504124656278644</v>
       </c>
       <c r="C14">
-        <v>0.56585348656842704</v>
+        <v>0.565853486568427</v>
       </c>
       <c r="D14">
-        <v>0.51632235775223856</v>
+        <v>0.5163223577522386</v>
       </c>
       <c r="E14">
-        <v>0.55658182330959605</v>
+        <v>0.556581823309596</v>
       </c>
       <c r="F14">
-        <v>0.54991891701332585</v>
+        <v>0.5499189170133258</v>
       </c>
       <c r="G14">
         <v>0.467531551857858</v>
       </c>
       <c r="H14">
-        <v>0.48420644433476701</v>
+        <v>0.484206444334767</v>
       </c>
       <c r="I14">
-        <v>0.54353803849679194</v>
+        <v>0.568638510893323</v>
       </c>
       <c r="J14">
-        <v>0.57829796234929143</v>
+        <v>0.5782979623492914</v>
       </c>
       <c r="K14">
-        <v>0.57149404216315303</v>
+        <v>0.571494042163153</v>
       </c>
       <c r="L14">
-        <v>0.95244306564196568</v>
+        <v>0.9524430656419657</v>
       </c>
       <c r="M14">
         <v>0.4936896284284002</v>
       </c>
       <c r="N14">
-        <v>0.55661707678206307</v>
+        <v>0.5566170767820631</v>
       </c>
       <c r="O14">
         <v>0.4608686455615878</v>
       </c>
       <c r="P14">
-        <v>0.56655855601776772</v>
+        <v>0.5665585560177677</v>
       </c>
       <c r="Q14">
-        <v>0.48328985405062402</v>
+        <v>0.483289854050624</v>
       </c>
       <c r="R14">
-        <v>0.47824860748783748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4782486074878375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.40232897742164969</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="C15">
-        <v>0.50327629460441081</v>
+        <v>0.4875709682369188</v>
       </c>
       <c r="D15">
-        <v>0.34638858726176658</v>
+        <v>0.3107257940770293</v>
       </c>
       <c r="E15">
-        <v>0.43277043471748983</v>
+        <v>0.3551480742673009</v>
       </c>
       <c r="F15">
-        <v>0.38034972104691661</v>
+        <v>0.3672702163572196</v>
       </c>
       <c r="G15">
-        <v>0.51870296177032238</v>
+        <v>0.4797452815712751</v>
       </c>
       <c r="H15">
-        <v>0.43265810461676713</v>
+        <v>0.4478287555623753</v>
       </c>
       <c r="I15">
-        <v>0.44115774890478149</v>
+        <v>0.4375479515114317</v>
       </c>
       <c r="J15">
-        <v>0.48286965963979478</v>
+        <v>0.4686205309191346</v>
       </c>
       <c r="K15">
-        <v>0.50248998389935218</v>
+        <v>0.5049102347705999</v>
       </c>
       <c r="L15">
-        <v>0.4829445463736099</v>
+        <v>0.4796685591529845</v>
       </c>
       <c r="M15">
-        <v>0.92754708503388628</v>
+        <v>0.9703851465398189</v>
       </c>
       <c r="N15">
-        <v>0.54188040588609732</v>
+        <v>0.518796992481203</v>
       </c>
       <c r="O15">
-        <v>0.37360991500355711</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="P15">
-        <v>0.48841127794211248</v>
+        <v>0.4825840110480282</v>
       </c>
       <c r="Q15">
-        <v>0.45946755532257461</v>
+        <v>0.4502838729476753</v>
       </c>
       <c r="R15">
-        <v>0.36713221252855049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.3609022556390977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.60512970548078804</v>
+        <v>0.605129705480788</v>
       </c>
       <c r="C16">
         <v>0.655061439438268</v>
       </c>
       <c r="D16">
-        <v>0.61507704310512967</v>
+        <v>0.6150770431051297</v>
       </c>
       <c r="E16">
-        <v>0.60903062219621606</v>
+        <v>0.6090306221962161</v>
       </c>
       <c r="F16">
-        <v>0.63029061829529942</v>
+        <v>0.6302906182952994</v>
       </c>
       <c r="G16">
-        <v>0.62775502243027115</v>
+        <v>0.6277550224302711</v>
       </c>
       <c r="H16">
-        <v>0.62034328067095768</v>
+        <v>0.6203432806709577</v>
       </c>
       <c r="I16">
-        <v>0.67154281256095183</v>
+        <v>0.6762239126194656</v>
       </c>
       <c r="J16">
-        <v>0.69143748780963521</v>
+        <v>0.6914374878096352</v>
       </c>
       <c r="K16">
         <v>0.6979715233079774</v>
@@ -1332,246 +1315,246 @@
         <v>0.5769455822118198</v>
       </c>
       <c r="M16">
-        <v>0.63038814121318509</v>
+        <v>0.6303881412131851</v>
       </c>
       <c r="N16">
-        <v>0.94187634094012096</v>
+        <v>0.941876340940121</v>
       </c>
       <c r="O16">
-        <v>0.54739613809245169</v>
+        <v>0.5473961380924517</v>
       </c>
       <c r="P16">
-        <v>0.66091281451141015</v>
+        <v>0.6609128145114102</v>
       </c>
       <c r="Q16">
-        <v>0.64033547883752684</v>
+        <v>0.6403354788375268</v>
       </c>
       <c r="R16">
-        <v>0.57860347181587668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5786034718158767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.62613573788546251</v>
+        <v>0.6261357378854625</v>
       </c>
       <c r="C17">
-        <v>0.65101872246696035</v>
+        <v>0.6510187224669604</v>
       </c>
       <c r="D17">
-        <v>0.66031112334801767</v>
+        <v>0.6603111233480177</v>
       </c>
       <c r="E17">
-        <v>0.65421943832599116</v>
+        <v>0.6542194383259912</v>
       </c>
       <c r="F17">
-        <v>0.66296117841409696</v>
+        <v>0.662961178414097</v>
       </c>
       <c r="G17">
-        <v>0.46651294052863429</v>
+        <v>0.4665129405286343</v>
       </c>
       <c r="H17">
-        <v>0.54240088105726869</v>
+        <v>0.5424008810572687</v>
       </c>
       <c r="I17">
-        <v>0.67173733480176212</v>
+        <v>0.6526362885462555</v>
       </c>
       <c r="J17">
         <v>0.5567524779735683</v>
       </c>
       <c r="K17">
-        <v>0.52997659691629961</v>
+        <v>0.5299765969162996</v>
       </c>
       <c r="L17">
         <v>0.4578400330396476</v>
       </c>
       <c r="M17">
-        <v>0.47405011013215859</v>
+        <v>0.4740501101321586</v>
       </c>
       <c r="N17">
-        <v>0.52281800660792954</v>
+        <v>0.5228180066079295</v>
       </c>
       <c r="O17">
-        <v>0.96782075991189431</v>
+        <v>0.9678207599118943</v>
       </c>
       <c r="P17">
-        <v>0.79549834801762109</v>
+        <v>0.7954983480176211</v>
       </c>
       <c r="Q17">
-        <v>0.61928689427312777</v>
+        <v>0.6192868942731278</v>
       </c>
       <c r="R17">
-        <v>0.51951404185022021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5195140418502202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.55929180154588098</v>
+        <v>0.559291801545881</v>
       </c>
       <c r="C18">
-        <v>0.64306005152936518</v>
+        <v>0.6430600515293652</v>
       </c>
       <c r="D18">
-        <v>0.54019951113166409</v>
+        <v>0.5401995111316641</v>
       </c>
       <c r="E18">
-        <v>0.54964656140582679</v>
+        <v>0.5496465614058268</v>
       </c>
       <c r="F18">
-        <v>0.59939221774459928</v>
+        <v>0.5993922177445993</v>
       </c>
       <c r="G18">
-        <v>0.44103851489727158</v>
+        <v>0.4410385148972716</v>
       </c>
       <c r="H18">
-        <v>0.46970998216291199</v>
+        <v>0.469709982162912</v>
       </c>
       <c r="I18">
-        <v>0.61689898923168396</v>
+        <v>0.5704564973244368</v>
       </c>
       <c r="J18">
-        <v>0.49098236110193572</v>
+        <v>0.4909823611019357</v>
       </c>
       <c r="K18">
         <v>0.4625751469908172</v>
       </c>
       <c r="L18">
-        <v>0.41315980709519717</v>
+        <v>0.4131598070951972</v>
       </c>
       <c r="M18">
-        <v>0.45471361564378682</v>
+        <v>0.4547136156437868</v>
       </c>
       <c r="N18">
         <v>0.4656140582678206</v>
       </c>
       <c r="O18">
-        <v>0.63975688709783973</v>
+        <v>0.6397568870978397</v>
       </c>
       <c r="P18">
-        <v>0.96729867212789855</v>
+        <v>0.9672986721278986</v>
       </c>
       <c r="Q18">
-        <v>0.58485829424588753</v>
+        <v>0.5848582942458875</v>
       </c>
       <c r="R18">
-        <v>0.52903481535310826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5290348153531083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.21180712032447049</v>
+        <v>0.2118071203244705</v>
       </c>
       <c r="C19">
-        <v>0.34339792699414151</v>
+        <v>0.3433979269941415</v>
       </c>
       <c r="D19">
-        <v>0.32492113564668768</v>
+        <v>0.3249211356466877</v>
       </c>
       <c r="E19">
-        <v>0.18251464623704369</v>
+        <v>0.1825146462370437</v>
       </c>
       <c r="F19">
         <v>0.2947273546642632</v>
       </c>
       <c r="G19">
-        <v>0.26092834610184767</v>
+        <v>0.2609283461018477</v>
       </c>
       <c r="H19">
-        <v>0.32582244254168552</v>
+        <v>0.3258224425416855</v>
       </c>
       <c r="I19">
-        <v>0.36683190626408291</v>
+        <v>0.3325822442541685</v>
       </c>
       <c r="J19">
-        <v>0.30914826498422721</v>
+        <v>0.3091482649842272</v>
       </c>
       <c r="K19">
-        <v>0.26904010815682738</v>
+        <v>0.2690401081568274</v>
       </c>
       <c r="L19">
-        <v>0.28841820639927901</v>
+        <v>0.288418206399279</v>
       </c>
       <c r="M19">
         <v>0.2947273546642632</v>
       </c>
       <c r="N19">
-        <v>0.28120775123929698</v>
+        <v>0.281207751239297</v>
       </c>
       <c r="O19">
-        <v>0.28931951329427669</v>
+        <v>0.2893195132942767</v>
       </c>
       <c r="P19">
-        <v>0.35601622352410989</v>
+        <v>0.3560162235241099</v>
       </c>
       <c r="Q19">
         <v>0.821991888237945</v>
       </c>
       <c r="R19">
-        <v>0.36007210455159983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.3600721045515998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0.1608416869863632</v>
       </c>
       <c r="C20">
-        <v>0.33125620879617079</v>
+        <v>0.3312562087961708</v>
       </c>
       <c r="D20">
-        <v>0.25097082994671732</v>
+        <v>0.2509708299467173</v>
       </c>
       <c r="E20">
-        <v>0.13022667750383821</v>
+        <v>0.1302266775038382</v>
       </c>
       <c r="F20">
-        <v>0.26298202835726542</v>
+        <v>0.2629820283572654</v>
       </c>
       <c r="G20">
-        <v>0.19118576718143229</v>
+        <v>0.1911857671814323</v>
       </c>
       <c r="H20">
-        <v>0.31987717872302002</v>
+        <v>0.31987717872302</v>
       </c>
       <c r="I20">
-        <v>0.3283662963966405</v>
+        <v>0.3127427074866793</v>
       </c>
       <c r="J20">
-        <v>0.32041903729793192</v>
+        <v>0.3204190372979319</v>
       </c>
       <c r="K20">
-        <v>0.32565700352208071</v>
+        <v>0.3256570035220807</v>
       </c>
       <c r="L20">
-        <v>0.31057527318703149</v>
+        <v>0.3105752731870315</v>
       </c>
       <c r="M20">
-        <v>0.30109274812607251</v>
+        <v>0.3010927481260725</v>
       </c>
       <c r="N20">
-        <v>0.28763659351575899</v>
+        <v>0.287636593515759</v>
       </c>
       <c r="O20">
-        <v>0.19037297931906441</v>
+        <v>0.1903729793190644</v>
       </c>
       <c r="P20">
-        <v>0.33297209428339197</v>
+        <v>0.332972094283392</v>
       </c>
       <c r="Q20">
-        <v>0.38002348053824619</v>
+        <v>0.3800234805382462</v>
       </c>
       <c r="R20">
-        <v>0.92937776573647612</v>
+        <v>0.9293777657364761</v>
       </c>
     </row>
   </sheetData>
